--- a/1 NHI impact/output/sfig_10_did_count.xlsx
+++ b/1 NHI impact/output/sfig_10_did_count.xlsx
@@ -1574,22 +1574,22 @@
         <v>-7</v>
       </c>
       <c r="D14">
-        <v>63.60171928349868</v>
+        <v>181.6775670553575</v>
       </c>
       <c r="E14">
-        <v>120.7997858331181</v>
+        <v>112.9812255995833</v>
       </c>
       <c r="F14">
-        <v>-200.1431182213375</v>
+        <v>-91.08471754415746</v>
       </c>
       <c r="G14">
-        <v>327.3465567883349</v>
+        <v>454.4398516548724</v>
       </c>
       <c r="H14">
-        <v>-173.1615102895646</v>
+        <v>-39.76156604902059</v>
       </c>
       <c r="I14">
-        <v>300.364948856562</v>
+        <v>403.1167001597356</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1602,16 +1602,16 @@
         </is>
       </c>
       <c r="P14">
-        <v>1320.388554216868</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="Q14">
-        <v>1320.388554216867</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="R14">
-        <v>0.0481689416955158</v>
+        <v>0.3728273750611542</v>
       </c>
       <c r="S14">
-        <v>0.3470709334803018</v>
+        <v>0.1997270199852468</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1659,22 +1659,22 @@
         <v>-6</v>
       </c>
       <c r="D15">
-        <v>83.11673448307495</v>
+        <v>230.6694994646905</v>
       </c>
       <c r="E15">
-        <v>45.36320982886857</v>
+        <v>114.5513369620758</v>
       </c>
       <c r="F15">
-        <v>-15.92576234337743</v>
+        <v>-45.88338981304699</v>
       </c>
       <c r="G15">
-        <v>182.1592313095273</v>
+        <v>507.2223887424279</v>
       </c>
       <c r="H15">
-        <v>-5.793523004640818</v>
+        <v>6.153004638110104</v>
       </c>
       <c r="I15">
-        <v>172.0269919707907</v>
+        <v>455.1859942912708</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1687,16 +1687,16 @@
         </is>
       </c>
       <c r="P15">
-        <v>1320.388554216868</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="Q15">
-        <v>1320.388554216867</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="R15">
-        <v>0.06294869356268551</v>
+        <v>0.4733655639822969</v>
       </c>
       <c r="S15">
-        <v>0.3470709334803018</v>
+        <v>0.1997270199852468</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1744,22 +1744,22 @@
         <v>-5</v>
       </c>
       <c r="D16">
-        <v>25.65272146882563</v>
+        <v>12.5319329809172</v>
       </c>
       <c r="E16">
-        <v>66.02130832457146</v>
+        <v>26.43872556531435</v>
       </c>
       <c r="F16">
-        <v>-118.493057564062</v>
+        <v>-51.29714259180645</v>
       </c>
       <c r="G16">
-        <v>169.7985005017132</v>
+        <v>76.36100855364084</v>
       </c>
       <c r="H16">
-        <v>-103.7466650595489</v>
+        <v>-39.28701692423731</v>
       </c>
       <c r="I16">
-        <v>155.0521079972001</v>
+        <v>64.3508828860717</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1772,16 +1772,16 @@
         </is>
       </c>
       <c r="P16">
-        <v>1320.388554216868</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="Q16">
-        <v>1320.388554216867</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="R16">
-        <v>0.01942816104161131</v>
+        <v>0.02571725146613187</v>
       </c>
       <c r="S16">
-        <v>0.3470709334803018</v>
+        <v>0.1997270199852468</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1829,22 +1829,22 @@
         <v>-4</v>
       </c>
       <c r="D17">
-        <v>-69.39346795837417</v>
+        <v>-14.08353718780793</v>
       </c>
       <c r="E17">
-        <v>101.9579391572409</v>
+        <v>23.03310604990639</v>
       </c>
       <c r="F17">
-        <v>-292.0004859253064</v>
+        <v>-69.69067540262427</v>
       </c>
       <c r="G17">
-        <v>153.213550008558</v>
+        <v>41.5236010270084</v>
       </c>
       <c r="H17">
-        <v>-269.2273566444925</v>
+        <v>-59.22759549771609</v>
       </c>
       <c r="I17">
-        <v>130.4404207277441</v>
+        <v>31.06052112210022</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1857,16 +1857,16 @@
         </is>
       </c>
       <c r="P17">
-        <v>1320.388554216868</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="Q17">
-        <v>1320.388554216867</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="R17">
-        <v>-0.05255533890895622</v>
+        <v>-0.02890135687311728</v>
       </c>
       <c r="S17">
-        <v>0.3470709334803018</v>
+        <v>0.1997270199852468</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1914,22 +1914,22 @@
         <v>-3</v>
       </c>
       <c r="D18">
-        <v>70.5790902968921</v>
+        <v>23.88652280056451</v>
       </c>
       <c r="E18">
-        <v>89.22708468694812</v>
+        <v>25.62601974914592</v>
       </c>
       <c r="F18">
-        <v>-124.2323722358304</v>
+        <v>-37.98049674073447</v>
       </c>
       <c r="G18">
-        <v>265.3905528296145</v>
+        <v>85.75354234186348</v>
       </c>
       <c r="H18">
-        <v>-104.3027821350315</v>
+        <v>-26.33955297487364</v>
       </c>
       <c r="I18">
-        <v>245.4609627288157</v>
+        <v>74.11259857600265</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1942,16 +1942,16 @@
         </is>
       </c>
       <c r="P18">
-        <v>1320.388554216868</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="Q18">
-        <v>1320.388554216867</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="R18">
-        <v>0.05345327333494883</v>
+        <v>0.04901843270699094</v>
       </c>
       <c r="S18">
-        <v>0.3470709334803018</v>
+        <v>0.1997270199852468</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1999,22 +1999,22 @@
         <v>-2</v>
       </c>
       <c r="D19">
-        <v>132.8802260748867</v>
+        <v>69.38988825839121</v>
       </c>
       <c r="E19">
-        <v>98.72415019468777</v>
+        <v>34.47690571550206</v>
       </c>
       <c r="F19">
-        <v>-82.66638910596961</v>
+        <v>-13.84517596556331</v>
       </c>
       <c r="G19">
-        <v>348.4268412557429</v>
+        <v>152.6249524823457</v>
       </c>
       <c r="H19">
-        <v>-60.61555271102426</v>
+        <v>1.816394757624053</v>
       </c>
       <c r="I19">
-        <v>326.3760048607976</v>
+        <v>136.9633817591584</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -2027,16 +2027,16 @@
         </is>
       </c>
       <c r="P19">
-        <v>1320.388554216868</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="Q19">
-        <v>1320.388554216867</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="R19">
-        <v>0.100637214440032</v>
+        <v>0.1423976020511108</v>
       </c>
       <c r="S19">
-        <v>0.3470709334803018</v>
+        <v>0.1997270199852468</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -2097,16 +2097,16 @@
         </is>
       </c>
       <c r="P20">
-        <v>1320.388554216868</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="Q20">
-        <v>1320.388554216867</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0.3470709334803018</v>
+        <v>0.1997270199852468</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -2154,34 +2154,34 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>265.7690990242743</v>
+        <v>6.687398898681632</v>
       </c>
       <c r="E21">
-        <v>91.87112360624756</v>
+        <v>35.04206999249121</v>
       </c>
       <c r="F21">
-        <v>65.18484798602856</v>
+        <v>-77.91209997844207</v>
       </c>
       <c r="G21">
-        <v>466.35335006252</v>
+        <v>91.28689777580534</v>
       </c>
       <c r="H21">
-        <v>85.70500553680154</v>
+        <v>-61.99379623033289</v>
       </c>
       <c r="I21">
-        <v>445.833192511747</v>
+        <v>75.36859402769616</v>
       </c>
       <c r="J21">
-        <v>458.2684880687542</v>
+        <v>97.32632712440842</v>
       </c>
       <c r="K21">
-        <v>122.8443670380634</v>
+        <v>85.11587713261434</v>
       </c>
       <c r="L21">
-        <v>217.4979529705306</v>
+        <v>-69.49772656805202</v>
       </c>
       <c r="M21">
-        <v>699.0390231669778</v>
+        <v>264.1503808168688</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -2194,16 +2194,16 @@
         </is>
       </c>
       <c r="P21">
-        <v>1320.388554216868</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="Q21">
-        <v>1320.388554216867</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="R21">
-        <v>0.201280977614884</v>
+        <v>0.01372346304385852</v>
       </c>
       <c r="S21">
-        <v>0.3470709334803018</v>
+        <v>0.1997270199852468</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>34.7%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="Z21">
@@ -2256,34 +2256,34 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>530.4093008079228</v>
+        <v>98.69036085298852</v>
       </c>
       <c r="E22">
-        <v>139.1147378692558</v>
+        <v>39.36905221433937</v>
       </c>
       <c r="F22">
-        <v>226.6770244565213</v>
+        <v>3.644546227479623</v>
       </c>
       <c r="G22">
-        <v>834.1415771593244</v>
+        <v>193.7361754784974</v>
       </c>
       <c r="H22">
-        <v>257.7494248654511</v>
+        <v>21.5284364074065</v>
       </c>
       <c r="I22">
-        <v>803.0691767503945</v>
+        <v>175.8522852985705</v>
       </c>
       <c r="J22">
-        <v>458.2684880687542</v>
+        <v>97.32632712440842</v>
       </c>
       <c r="K22">
-        <v>122.8443670380634</v>
+        <v>85.11587713261434</v>
       </c>
       <c r="L22">
-        <v>217.4979529705306</v>
+        <v>-69.49772656805202</v>
       </c>
       <c r="M22">
-        <v>699.0390231669778</v>
+        <v>264.1503808168688</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -2296,16 +2296,16 @@
         </is>
       </c>
       <c r="P22">
-        <v>1320.388554216868</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="Q22">
-        <v>1320.388554216867</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="R22">
-        <v>0.4017069817168422</v>
+        <v>0.2025262049521307</v>
       </c>
       <c r="S22">
-        <v>0.3470709334803018</v>
+        <v>0.1997270199852468</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2353,34 +2353,34 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>539.354677813323</v>
+        <v>95.36579041110812</v>
       </c>
       <c r="E23">
-        <v>144.3024769094277</v>
+        <v>51.75264110043446</v>
       </c>
       <c r="F23">
-        <v>224.2958963631639</v>
+        <v>-29.57681439513073</v>
       </c>
       <c r="G23">
-        <v>854.4134592634821</v>
+        <v>220.308395217347</v>
       </c>
       <c r="H23">
-        <v>256.527020190922</v>
+        <v>-6.067522250570747</v>
       </c>
       <c r="I23">
-        <v>822.1823354357239</v>
+        <v>196.799103072787</v>
       </c>
       <c r="J23">
-        <v>458.2684880687542</v>
+        <v>97.32632712440842</v>
       </c>
       <c r="K23">
-        <v>122.8443670380634</v>
+        <v>85.11587713261434</v>
       </c>
       <c r="L23">
-        <v>217.4979529705306</v>
+        <v>-69.49772656805202</v>
       </c>
       <c r="M23">
-        <v>699.0390231669778</v>
+        <v>264.1503808168688</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2393,16 +2393,16 @@
         </is>
       </c>
       <c r="P23">
-        <v>1320.388554216868</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="Q23">
-        <v>1320.388554216867</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="R23">
-        <v>0.4084817882515033</v>
+        <v>0.1957037287865704</v>
       </c>
       <c r="S23">
-        <v>0.3470709334803018</v>
+        <v>0.1997270199852468</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2450,34 +2450,34 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>568.8130670548287</v>
+        <v>166.8912729928203</v>
       </c>
       <c r="E24">
-        <v>199.387852613149</v>
+        <v>85.88920711977674</v>
       </c>
       <c r="F24">
-        <v>133.4851695323815</v>
+        <v>-40.46473887644402</v>
       </c>
       <c r="G24">
-        <v>1004.140964577276</v>
+        <v>374.2472848620845</v>
       </c>
       <c r="H24">
-        <v>178.0200569782762</v>
+        <v>-1.448479622643305</v>
       </c>
       <c r="I24">
-        <v>959.6060771313812</v>
+        <v>335.2310256082839</v>
       </c>
       <c r="J24">
-        <v>458.2684880687542</v>
+        <v>97.32632712440842</v>
       </c>
       <c r="K24">
-        <v>122.8443670380634</v>
+        <v>85.11587713261434</v>
       </c>
       <c r="L24">
-        <v>217.4979529705306</v>
+        <v>-69.49772656805202</v>
       </c>
       <c r="M24">
-        <v>699.0390231669778</v>
+        <v>264.1503808168688</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2490,16 +2490,16 @@
         </is>
       </c>
       <c r="P24">
-        <v>1320.388554216868</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="Q24">
-        <v>1320.388554216867</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="R24">
-        <v>0.4307921825270563</v>
+        <v>0.342483864348363</v>
       </c>
       <c r="S24">
-        <v>0.3470709334803018</v>
+        <v>0.1997270199852468</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2547,34 +2547,34 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>386.9962956434223</v>
+        <v>118.9968124664436</v>
       </c>
       <c r="E25">
-        <v>234.9093114303765</v>
+        <v>267.5460332555799</v>
       </c>
       <c r="F25">
-        <v>-125.886386592194</v>
+        <v>-526.9199482966728</v>
       </c>
       <c r="G25">
-        <v>899.8789778790385</v>
+        <v>764.9135732295599</v>
       </c>
       <c r="H25">
-        <v>-73.41749439321887</v>
+        <v>-405.3837769210484</v>
       </c>
       <c r="I25">
-        <v>847.4100856800635</v>
+        <v>643.3774018539357</v>
       </c>
       <c r="J25">
-        <v>458.2684880687542</v>
+        <v>97.32632712440842</v>
       </c>
       <c r="K25">
-        <v>122.8443670380634</v>
+        <v>85.11587713261434</v>
       </c>
       <c r="L25">
-        <v>217.4979529705306</v>
+        <v>-69.49772656805202</v>
       </c>
       <c r="M25">
-        <v>699.0390231669778</v>
+        <v>264.1503808168688</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="P25">
-        <v>1320.388554216868</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="Q25">
-        <v>1320.388554216867</v>
+        <v>487.2967469879518</v>
       </c>
       <c r="R25">
-        <v>0.2930927372912232</v>
+        <v>0.2441978387953116</v>
       </c>
       <c r="S25">
-        <v>0.3470709334803018</v>
+        <v>0.1997270199852468</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2644,22 +2644,22 @@
         <v>-7</v>
       </c>
       <c r="D26">
-        <v>181.6775670553575</v>
+        <v>63.60171928349868</v>
       </c>
       <c r="E26">
-        <v>112.9812255995833</v>
+        <v>120.7997858331181</v>
       </c>
       <c r="F26">
-        <v>-91.08471754415746</v>
+        <v>-200.1431182213375</v>
       </c>
       <c r="G26">
-        <v>454.4398516548724</v>
+        <v>327.3465567883349</v>
       </c>
       <c r="H26">
-        <v>-39.76156604902059</v>
+        <v>-173.1615102895646</v>
       </c>
       <c r="I26">
-        <v>403.1167001597356</v>
+        <v>300.364948856562</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2672,16 +2672,16 @@
         </is>
       </c>
       <c r="P26">
-        <v>487.2967469879518</v>
+        <v>1320.388554216868</v>
       </c>
       <c r="Q26">
-        <v>487.2967469879518</v>
+        <v>1320.388554216867</v>
       </c>
       <c r="R26">
-        <v>0.3728273750611542</v>
+        <v>0.0481689416955158</v>
       </c>
       <c r="S26">
-        <v>0.1997270199852468</v>
+        <v>0.3470709334803018</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2729,22 +2729,22 @@
         <v>-6</v>
       </c>
       <c r="D27">
-        <v>230.6694994646905</v>
+        <v>83.11673448307495</v>
       </c>
       <c r="E27">
-        <v>114.5513369620758</v>
+        <v>45.36320982886857</v>
       </c>
       <c r="F27">
-        <v>-45.88338981304699</v>
+        <v>-15.92576234337743</v>
       </c>
       <c r="G27">
-        <v>507.2223887424279</v>
+        <v>182.1592313095273</v>
       </c>
       <c r="H27">
-        <v>6.153004638110104</v>
+        <v>-5.793523004640818</v>
       </c>
       <c r="I27">
-        <v>455.1859942912708</v>
+        <v>172.0269919707907</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2757,16 +2757,16 @@
         </is>
       </c>
       <c r="P27">
-        <v>487.2967469879518</v>
+        <v>1320.388554216868</v>
       </c>
       <c r="Q27">
-        <v>487.2967469879518</v>
+        <v>1320.388554216867</v>
       </c>
       <c r="R27">
-        <v>0.4733655639822969</v>
+        <v>0.06294869356268551</v>
       </c>
       <c r="S27">
-        <v>0.1997270199852468</v>
+        <v>0.3470709334803018</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2814,22 +2814,22 @@
         <v>-5</v>
       </c>
       <c r="D28">
-        <v>12.5319329809172</v>
+        <v>25.65272146882563</v>
       </c>
       <c r="E28">
-        <v>26.43872556531435</v>
+        <v>66.02130832457146</v>
       </c>
       <c r="F28">
-        <v>-51.29714259180645</v>
+        <v>-118.493057564062</v>
       </c>
       <c r="G28">
-        <v>76.36100855364084</v>
+        <v>169.7985005017132</v>
       </c>
       <c r="H28">
-        <v>-39.28701692423731</v>
+        <v>-103.7466650595489</v>
       </c>
       <c r="I28">
-        <v>64.3508828860717</v>
+        <v>155.0521079972001</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2842,16 +2842,16 @@
         </is>
       </c>
       <c r="P28">
-        <v>487.2967469879518</v>
+        <v>1320.388554216868</v>
       </c>
       <c r="Q28">
-        <v>487.2967469879518</v>
+        <v>1320.388554216867</v>
       </c>
       <c r="R28">
-        <v>0.02571725146613187</v>
+        <v>0.01942816104161131</v>
       </c>
       <c r="S28">
-        <v>0.1997270199852468</v>
+        <v>0.3470709334803018</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2899,22 +2899,22 @@
         <v>-4</v>
       </c>
       <c r="D29">
-        <v>-14.08353718780793</v>
+        <v>-69.39346795837417</v>
       </c>
       <c r="E29">
-        <v>23.03310604990639</v>
+        <v>101.9579391572409</v>
       </c>
       <c r="F29">
-        <v>-69.69067540262427</v>
+        <v>-292.0004859253064</v>
       </c>
       <c r="G29">
-        <v>41.5236010270084</v>
+        <v>153.213550008558</v>
       </c>
       <c r="H29">
-        <v>-59.22759549771609</v>
+        <v>-269.2273566444925</v>
       </c>
       <c r="I29">
-        <v>31.06052112210022</v>
+        <v>130.4404207277441</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2927,16 +2927,16 @@
         </is>
       </c>
       <c r="P29">
-        <v>487.2967469879518</v>
+        <v>1320.388554216868</v>
       </c>
       <c r="Q29">
-        <v>487.2967469879518</v>
+        <v>1320.388554216867</v>
       </c>
       <c r="R29">
-        <v>-0.02890135687311728</v>
+        <v>-0.05255533890895622</v>
       </c>
       <c r="S29">
-        <v>0.1997270199852468</v>
+        <v>0.3470709334803018</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2984,22 +2984,22 @@
         <v>-3</v>
       </c>
       <c r="D30">
-        <v>23.88652280056451</v>
+        <v>70.5790902968921</v>
       </c>
       <c r="E30">
-        <v>25.62601974914592</v>
+        <v>89.22708468694812</v>
       </c>
       <c r="F30">
-        <v>-37.98049674073447</v>
+        <v>-124.2323722358304</v>
       </c>
       <c r="G30">
-        <v>85.75354234186348</v>
+        <v>265.3905528296145</v>
       </c>
       <c r="H30">
-        <v>-26.33955297487364</v>
+        <v>-104.3027821350315</v>
       </c>
       <c r="I30">
-        <v>74.11259857600265</v>
+        <v>245.4609627288157</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -3012,16 +3012,16 @@
         </is>
       </c>
       <c r="P30">
-        <v>487.2967469879518</v>
+        <v>1320.388554216868</v>
       </c>
       <c r="Q30">
-        <v>487.2967469879518</v>
+        <v>1320.388554216867</v>
       </c>
       <c r="R30">
-        <v>0.04901843270699094</v>
+        <v>0.05345327333494883</v>
       </c>
       <c r="S30">
-        <v>0.1997270199852468</v>
+        <v>0.3470709334803018</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -3069,22 +3069,22 @@
         <v>-2</v>
       </c>
       <c r="D31">
-        <v>69.38988825839121</v>
+        <v>132.8802260748867</v>
       </c>
       <c r="E31">
-        <v>34.47690571550206</v>
+        <v>98.72415019468777</v>
       </c>
       <c r="F31">
-        <v>-13.84517596556331</v>
+        <v>-82.66638910596961</v>
       </c>
       <c r="G31">
-        <v>152.6249524823457</v>
+        <v>348.4268412557429</v>
       </c>
       <c r="H31">
-        <v>1.816394757624053</v>
+        <v>-60.61555271102426</v>
       </c>
       <c r="I31">
-        <v>136.9633817591584</v>
+        <v>326.3760048607976</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="P31">
-        <v>487.2967469879518</v>
+        <v>1320.388554216868</v>
       </c>
       <c r="Q31">
-        <v>487.2967469879518</v>
+        <v>1320.388554216867</v>
       </c>
       <c r="R31">
-        <v>0.1423976020511108</v>
+        <v>0.100637214440032</v>
       </c>
       <c r="S31">
-        <v>0.1997270199852468</v>
+        <v>0.3470709334803018</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -3167,16 +3167,16 @@
         </is>
       </c>
       <c r="P32">
-        <v>487.2967469879518</v>
+        <v>1320.388554216868</v>
       </c>
       <c r="Q32">
-        <v>487.2967469879518</v>
+        <v>1320.388554216867</v>
       </c>
       <c r="R32">
         <v>0</v>
       </c>
       <c r="S32">
-        <v>0.1997270199852468</v>
+        <v>0.3470709334803018</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -3224,34 +3224,34 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>6.687398898681632</v>
+        <v>265.7690990242743</v>
       </c>
       <c r="E33">
-        <v>35.04206999249121</v>
+        <v>91.87112360624756</v>
       </c>
       <c r="F33">
-        <v>-77.91209997844207</v>
+        <v>65.18484798602856</v>
       </c>
       <c r="G33">
-        <v>91.28689777580534</v>
+        <v>466.35335006252</v>
       </c>
       <c r="H33">
-        <v>-61.99379623033289</v>
+        <v>85.70500553680154</v>
       </c>
       <c r="I33">
-        <v>75.36859402769616</v>
+        <v>445.833192511747</v>
       </c>
       <c r="J33">
-        <v>97.32632712440842</v>
+        <v>458.2684880687542</v>
       </c>
       <c r="K33">
-        <v>85.11587713261434</v>
+        <v>122.8443670380634</v>
       </c>
       <c r="L33">
-        <v>-69.49772656805202</v>
+        <v>217.4979529705306</v>
       </c>
       <c r="M33">
-        <v>264.1503808168688</v>
+        <v>699.0390231669778</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -3264,16 +3264,16 @@
         </is>
       </c>
       <c r="P33">
-        <v>487.2967469879518</v>
+        <v>1320.388554216868</v>
       </c>
       <c r="Q33">
-        <v>487.2967469879518</v>
+        <v>1320.388554216867</v>
       </c>
       <c r="R33">
-        <v>0.01372346304385852</v>
+        <v>0.201280977614884</v>
       </c>
       <c r="S33">
-        <v>0.1997270199852468</v>
+        <v>0.3470709334803018</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>34.7%</t>
         </is>
       </c>
       <c r="Z33">
@@ -3326,34 +3326,34 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>98.69036085298852</v>
+        <v>530.4093008079228</v>
       </c>
       <c r="E34">
-        <v>39.36905221433937</v>
+        <v>139.1147378692558</v>
       </c>
       <c r="F34">
-        <v>3.644546227479623</v>
+        <v>226.6770244565213</v>
       </c>
       <c r="G34">
-        <v>193.7361754784974</v>
+        <v>834.1415771593244</v>
       </c>
       <c r="H34">
-        <v>21.5284364074065</v>
+        <v>257.7494248654511</v>
       </c>
       <c r="I34">
-        <v>175.8522852985705</v>
+        <v>803.0691767503945</v>
       </c>
       <c r="J34">
-        <v>97.32632712440842</v>
+        <v>458.2684880687542</v>
       </c>
       <c r="K34">
-        <v>85.11587713261434</v>
+        <v>122.8443670380634</v>
       </c>
       <c r="L34">
-        <v>-69.49772656805202</v>
+        <v>217.4979529705306</v>
       </c>
       <c r="M34">
-        <v>264.1503808168688</v>
+        <v>699.0390231669778</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -3366,16 +3366,16 @@
         </is>
       </c>
       <c r="P34">
-        <v>487.2967469879518</v>
+        <v>1320.388554216868</v>
       </c>
       <c r="Q34">
-        <v>487.2967469879518</v>
+        <v>1320.388554216867</v>
       </c>
       <c r="R34">
-        <v>0.2025262049521307</v>
+        <v>0.4017069817168422</v>
       </c>
       <c r="S34">
-        <v>0.1997270199852468</v>
+        <v>0.3470709334803018</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -3423,34 +3423,34 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>95.36579041110812</v>
+        <v>539.354677813323</v>
       </c>
       <c r="E35">
-        <v>51.75264110043446</v>
+        <v>144.3024769094277</v>
       </c>
       <c r="F35">
-        <v>-29.57681439513073</v>
+        <v>224.2958963631639</v>
       </c>
       <c r="G35">
-        <v>220.308395217347</v>
+        <v>854.4134592634821</v>
       </c>
       <c r="H35">
-        <v>-6.067522250570747</v>
+        <v>256.527020190922</v>
       </c>
       <c r="I35">
-        <v>196.799103072787</v>
+        <v>822.1823354357239</v>
       </c>
       <c r="J35">
-        <v>97.32632712440842</v>
+        <v>458.2684880687542</v>
       </c>
       <c r="K35">
-        <v>85.11587713261434</v>
+        <v>122.8443670380634</v>
       </c>
       <c r="L35">
-        <v>-69.49772656805202</v>
+        <v>217.4979529705306</v>
       </c>
       <c r="M35">
-        <v>264.1503808168688</v>
+        <v>699.0390231669778</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -3463,16 +3463,16 @@
         </is>
       </c>
       <c r="P35">
-        <v>487.2967469879518</v>
+        <v>1320.388554216868</v>
       </c>
       <c r="Q35">
-        <v>487.2967469879518</v>
+        <v>1320.388554216867</v>
       </c>
       <c r="R35">
-        <v>0.1957037287865704</v>
+        <v>0.4084817882515033</v>
       </c>
       <c r="S35">
-        <v>0.1997270199852468</v>
+        <v>0.3470709334803018</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -3520,34 +3520,34 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <v>166.8912729928203</v>
+        <v>568.8130670548287</v>
       </c>
       <c r="E36">
-        <v>85.88920711977674</v>
+        <v>199.387852613149</v>
       </c>
       <c r="F36">
-        <v>-40.46473887644402</v>
+        <v>133.4851695323815</v>
       </c>
       <c r="G36">
-        <v>374.2472848620845</v>
+        <v>1004.140964577276</v>
       </c>
       <c r="H36">
-        <v>-1.448479622643305</v>
+        <v>178.0200569782762</v>
       </c>
       <c r="I36">
-        <v>335.2310256082839</v>
+        <v>959.6060771313812</v>
       </c>
       <c r="J36">
-        <v>97.32632712440842</v>
+        <v>458.2684880687542</v>
       </c>
       <c r="K36">
-        <v>85.11587713261434</v>
+        <v>122.8443670380634</v>
       </c>
       <c r="L36">
-        <v>-69.49772656805202</v>
+        <v>217.4979529705306</v>
       </c>
       <c r="M36">
-        <v>264.1503808168688</v>
+        <v>699.0390231669778</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -3560,16 +3560,16 @@
         </is>
       </c>
       <c r="P36">
-        <v>487.2967469879518</v>
+        <v>1320.388554216868</v>
       </c>
       <c r="Q36">
-        <v>487.2967469879518</v>
+        <v>1320.388554216867</v>
       </c>
       <c r="R36">
-        <v>0.342483864348363</v>
+        <v>0.4307921825270563</v>
       </c>
       <c r="S36">
-        <v>0.1997270199852468</v>
+        <v>0.3470709334803018</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -3617,34 +3617,34 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>118.9968124664436</v>
+        <v>386.9962956434223</v>
       </c>
       <c r="E37">
-        <v>267.5460332555799</v>
+        <v>234.9093114303765</v>
       </c>
       <c r="F37">
-        <v>-526.9199482966728</v>
+        <v>-125.886386592194</v>
       </c>
       <c r="G37">
-        <v>764.9135732295599</v>
+        <v>899.8789778790385</v>
       </c>
       <c r="H37">
-        <v>-405.3837769210484</v>
+        <v>-73.41749439321887</v>
       </c>
       <c r="I37">
-        <v>643.3774018539357</v>
+        <v>847.4100856800635</v>
       </c>
       <c r="J37">
-        <v>97.32632712440842</v>
+        <v>458.2684880687542</v>
       </c>
       <c r="K37">
-        <v>85.11587713261434</v>
+        <v>122.8443670380634</v>
       </c>
       <c r="L37">
-        <v>-69.49772656805202</v>
+        <v>217.4979529705306</v>
       </c>
       <c r="M37">
-        <v>264.1503808168688</v>
+        <v>699.0390231669778</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3657,16 +3657,16 @@
         </is>
       </c>
       <c r="P37">
-        <v>487.2967469879518</v>
+        <v>1320.388554216868</v>
       </c>
       <c r="Q37">
-        <v>487.2967469879518</v>
+        <v>1320.388554216867</v>
       </c>
       <c r="R37">
-        <v>0.2441978387953116</v>
+        <v>0.2930927372912232</v>
       </c>
       <c r="S37">
-        <v>0.1997270199852468</v>
+        <v>0.3470709334803018</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -7970,22 +7970,22 @@
         <v>-7</v>
       </c>
       <c r="D86">
-        <v>-77.1875930586167</v>
+        <v>-38.09028796082376</v>
       </c>
       <c r="E86">
-        <v>38.09729721921028</v>
+        <v>17.5882175371469</v>
       </c>
       <c r="F86">
-        <v>-166.2174897189566</v>
+        <v>-77.48296728507646</v>
       </c>
       <c r="G86">
-        <v>11.84230360172316</v>
+        <v>1.302391363428946</v>
       </c>
       <c r="H86">
-        <v>-151.8569235165868</v>
+        <v>-72.56256088588745</v>
       </c>
       <c r="I86">
-        <v>-2.518262600646608</v>
+        <v>-3.618015035760074</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -7998,16 +7998,16 @@
         </is>
       </c>
       <c r="P86">
-        <v>509.2476851851851</v>
+        <v>183.961574074074</v>
       </c>
       <c r="Q86">
-        <v>509.2476851851852</v>
+        <v>183.9615740740741</v>
       </c>
       <c r="R86">
-        <v>-0.1515718093653147</v>
+        <v>-0.207055675363412</v>
       </c>
       <c r="S86">
-        <v>0.2948473277569419</v>
+        <v>0.3536140044183504</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -8055,22 +8055,22 @@
         <v>-6</v>
       </c>
       <c r="D87">
-        <v>-107.0079945718317</v>
+        <v>-26.77941766330324</v>
       </c>
       <c r="E87">
-        <v>10.4627990820073</v>
+        <v>16.26049854177732</v>
       </c>
       <c r="F87">
-        <v>-131.4585983952259</v>
+        <v>-63.19837844519381</v>
       </c>
       <c r="G87">
-        <v>-82.55739074843747</v>
+        <v>9.63954311858733</v>
       </c>
       <c r="H87">
-        <v>-127.5147039500447</v>
+        <v>-58.64940917585285</v>
       </c>
       <c r="I87">
-        <v>-86.50128519361864</v>
+        <v>5.090573849246375</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -8083,16 +8083,16 @@
         </is>
       </c>
       <c r="P87">
-        <v>509.2476851851851</v>
+        <v>183.961574074074</v>
       </c>
       <c r="Q87">
-        <v>509.2476851851852</v>
+        <v>183.9615740740741</v>
       </c>
       <c r="R87">
-        <v>-0.2101295650129834</v>
+        <v>-0.1455707138737583</v>
       </c>
       <c r="S87">
-        <v>0.2948473277569419</v>
+        <v>0.3536140044183504</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -8140,22 +8140,22 @@
         <v>-5</v>
       </c>
       <c r="D88">
-        <v>-36.29697999661757</v>
+        <v>8.642136378831529</v>
       </c>
       <c r="E88">
-        <v>40.42277945524267</v>
+        <v>11.25920703931048</v>
       </c>
       <c r="F88">
-        <v>-130.7613157975645</v>
+        <v>-16.57533272559454</v>
       </c>
       <c r="G88">
-        <v>58.16735580432941</v>
+        <v>33.8596054832576</v>
       </c>
       <c r="H88">
-        <v>-115.5241718838988</v>
+        <v>-13.42550391269687</v>
       </c>
       <c r="I88">
-        <v>42.93021189066366</v>
+        <v>30.70977667035992</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -8168,16 +8168,16 @@
         </is>
       </c>
       <c r="P88">
-        <v>509.2476851851851</v>
+        <v>183.961574074074</v>
       </c>
       <c r="Q88">
-        <v>509.2476851851852</v>
+        <v>183.9615740740741</v>
       </c>
       <c r="R88">
-        <v>-0.07127568971357891</v>
+        <v>0.04697794320542006</v>
       </c>
       <c r="S88">
-        <v>0.2948473277569419</v>
+        <v>0.3536140044183504</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -8225,22 +8225,22 @@
         <v>-4</v>
       </c>
       <c r="D89">
-        <v>-60.75893758784332</v>
+        <v>-0.6570992157771496</v>
       </c>
       <c r="E89">
-        <v>32.23104393008393</v>
+        <v>15.08033981901844</v>
       </c>
       <c r="F89">
-        <v>-136.0799372335429</v>
+        <v>-34.4328351217431</v>
       </c>
       <c r="G89">
-        <v>14.56206205785621</v>
+        <v>33.1186366901888</v>
       </c>
       <c r="H89">
-        <v>-123.9306228749361</v>
+        <v>-30.21402213567857</v>
       </c>
       <c r="I89">
-        <v>2.4127476992495</v>
+        <v>28.89982370412427</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -8253,16 +8253,16 @@
         </is>
       </c>
       <c r="P89">
-        <v>509.2476851851851</v>
+        <v>183.961574074074</v>
       </c>
       <c r="Q89">
-        <v>509.2476851851852</v>
+        <v>183.9615740740741</v>
       </c>
       <c r="R89">
-        <v>-0.1193111708809215</v>
+        <v>-0.003571937341178443</v>
       </c>
       <c r="S89">
-        <v>0.2948473277569419</v>
+        <v>0.3536140044183504</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
@@ -8310,22 +8310,22 @@
         <v>-3</v>
       </c>
       <c r="D90">
-        <v>6.276694877709938</v>
+        <v>5.642110123211724</v>
       </c>
       <c r="E90">
-        <v>34.55293689537372</v>
+        <v>8.221140606328989</v>
       </c>
       <c r="F90">
-        <v>-74.47035611138733</v>
+        <v>-12.77094139270923</v>
       </c>
       <c r="G90">
-        <v>87.02374586680722</v>
+        <v>24.05516163913268</v>
       </c>
       <c r="H90">
-        <v>-61.44581699730777</v>
+        <v>-10.47102937703287</v>
       </c>
       <c r="I90">
-        <v>73.99920675272764</v>
+        <v>21.75524962345632</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -8338,16 +8338,16 @@
         </is>
       </c>
       <c r="P90">
-        <v>509.2476851851851</v>
+        <v>183.961574074074</v>
       </c>
       <c r="Q90">
-        <v>509.2476851851852</v>
+        <v>183.9615740740741</v>
       </c>
       <c r="R90">
-        <v>0.01232542642864926</v>
+        <v>0.03067004700090176</v>
       </c>
       <c r="S90">
-        <v>0.2948473277569419</v>
+        <v>0.3536140044183504</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -8395,22 +8395,22 @@
         <v>-2</v>
       </c>
       <c r="D91">
-        <v>20.96048444666444</v>
+        <v>3.357501717996773</v>
       </c>
       <c r="E91">
-        <v>50.8259753597028</v>
+        <v>10.11099640184762</v>
       </c>
       <c r="F91">
-        <v>-97.81516800706414</v>
+        <v>-19.2882972701858</v>
       </c>
       <c r="G91">
-        <v>139.736136900393</v>
+        <v>26.00330070617934</v>
       </c>
       <c r="H91">
-        <v>-78.65659673747325</v>
+        <v>-16.45968707743863</v>
       </c>
       <c r="I91">
-        <v>120.5775656308021</v>
+        <v>23.17469051343218</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -8423,16 +8423,16 @@
         </is>
       </c>
       <c r="P91">
-        <v>509.2476851851851</v>
+        <v>183.961574074074</v>
       </c>
       <c r="Q91">
-        <v>509.2476851851852</v>
+        <v>183.9615740740741</v>
       </c>
       <c r="R91">
-        <v>0.04115970490674351</v>
+        <v>0.0182511034431834</v>
       </c>
       <c r="S91">
-        <v>0.2948473277569419</v>
+        <v>0.3536140044183504</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="P92">
-        <v>509.2476851851851</v>
+        <v>183.961574074074</v>
       </c>
       <c r="Q92">
-        <v>509.2476851851852</v>
+        <v>183.9615740740741</v>
       </c>
       <c r="R92">
         <v>0</v>
       </c>
       <c r="S92">
-        <v>0.2948473277569419</v>
+        <v>0.3536140044183504</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
@@ -8550,34 +8550,34 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>73.8885661431575</v>
+        <v>20.30937814568969</v>
       </c>
       <c r="E93">
-        <v>25.91788377423924</v>
+        <v>8.816502655625374</v>
       </c>
       <c r="F93">
-        <v>13.32084395546131</v>
+        <v>0.5628824510036488</v>
       </c>
       <c r="G93">
-        <v>134.4562883308537</v>
+        <v>40.05587384037572</v>
       </c>
       <c r="H93">
-        <v>23.09044739015356</v>
+        <v>3.029350471062216</v>
       </c>
       <c r="I93">
-        <v>124.6866848961615</v>
+        <v>37.58940582031716</v>
       </c>
       <c r="J93">
-        <v>150.1503191432602</v>
+        <v>65.05138886743634</v>
       </c>
       <c r="K93">
-        <v>40.20954464656222</v>
+        <v>32.95277966205</v>
       </c>
       <c r="L93">
-        <v>71.34105980124298</v>
+        <v>0.4651275393343894</v>
       </c>
       <c r="M93">
-        <v>228.9595784852775</v>
+        <v>129.6376501955383</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -8590,16 +8590,16 @@
         </is>
       </c>
       <c r="P93">
-        <v>509.2476851851851</v>
+        <v>183.961574074074</v>
       </c>
       <c r="Q93">
-        <v>509.2476851851852</v>
+        <v>183.9615740740741</v>
       </c>
       <c r="R93">
-        <v>0.1450935729168574</v>
+        <v>0.1104001107182954</v>
       </c>
       <c r="S93">
-        <v>0.2948473277569419</v>
+        <v>0.3536140044183504</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -8630,7 +8630,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>29.5%</t>
+          <t>35.4%</t>
         </is>
       </c>
       <c r="Z93">
@@ -8652,34 +8652,34 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>173.7247130293028</v>
+        <v>63.8612791381464</v>
       </c>
       <c r="E94">
-        <v>47.65185217969962</v>
+        <v>20.69784355510509</v>
       </c>
       <c r="F94">
-        <v>62.36669592846692</v>
+        <v>17.50390880498031</v>
       </c>
       <c r="G94">
-        <v>285.0827301301388</v>
+        <v>110.2186494713125</v>
       </c>
       <c r="H94">
-        <v>80.32879896046515</v>
+        <v>23.29425121249596</v>
       </c>
       <c r="I94">
-        <v>267.1206270981405</v>
+        <v>104.4283070637968</v>
       </c>
       <c r="J94">
-        <v>150.1503191432602</v>
+        <v>65.05138886743634</v>
       </c>
       <c r="K94">
-        <v>40.20954464656222</v>
+        <v>32.95277966205</v>
       </c>
       <c r="L94">
-        <v>71.34105980124298</v>
+        <v>0.4651275393343894</v>
       </c>
       <c r="M94">
-        <v>228.9595784852775</v>
+        <v>129.6376501955383</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -8692,16 +8692,16 @@
         </is>
       </c>
       <c r="P94">
-        <v>509.2476851851851</v>
+        <v>183.961574074074</v>
       </c>
       <c r="Q94">
-        <v>509.2476851851852</v>
+        <v>183.9615740740741</v>
       </c>
       <c r="R94">
-        <v>0.3411399169465616</v>
+        <v>0.3471446657247669</v>
       </c>
       <c r="S94">
-        <v>0.2948473277569419</v>
+        <v>0.3536140044183504</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -8749,34 +8749,34 @@
         <v>2</v>
       </c>
       <c r="D95">
-        <v>187.8321900018209</v>
+        <v>86.67505095464267</v>
       </c>
       <c r="E95">
-        <v>75.29069786185244</v>
+        <v>32.66544239661529</v>
       </c>
       <c r="F95">
-        <v>11.88472024941044</v>
+        <v>13.51361236105043</v>
       </c>
       <c r="G95">
-        <v>363.7796597542315</v>
+        <v>159.8364895482349</v>
       </c>
       <c r="H95">
-        <v>40.26513382170336</v>
+        <v>22.65196031820896</v>
       </c>
       <c r="I95">
-        <v>335.3992461819386</v>
+        <v>150.6981415910764</v>
       </c>
       <c r="J95">
-        <v>150.1503191432602</v>
+        <v>65.05138886743634</v>
       </c>
       <c r="K95">
-        <v>40.20954464656222</v>
+        <v>32.95277966205</v>
       </c>
       <c r="L95">
-        <v>71.34105980124298</v>
+        <v>0.4651275393343894</v>
       </c>
       <c r="M95">
-        <v>228.9595784852775</v>
+        <v>129.6376501955383</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -8789,16 +8789,16 @@
         </is>
       </c>
       <c r="P95">
-        <v>509.2476851851851</v>
+        <v>183.961574074074</v>
       </c>
       <c r="Q95">
-        <v>509.2476851851852</v>
+        <v>183.9615740740741</v>
       </c>
       <c r="R95">
-        <v>0.3688425013331514</v>
+        <v>0.4711584546441314</v>
       </c>
       <c r="S95">
-        <v>0.2948473277569419</v>
+        <v>0.3536140044183504</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -8846,34 +8846,34 @@
         <v>3</v>
       </c>
       <c r="D96">
-        <v>149.1211457717187</v>
+        <v>57.47254894700725</v>
       </c>
       <c r="E96">
-        <v>43.31483806195745</v>
+        <v>36.05553003952257</v>
       </c>
       <c r="F96">
-        <v>47.89833370905859</v>
+        <v>-23.28173611417655</v>
       </c>
       <c r="G96">
-        <v>250.3439578343789</v>
+        <v>138.2268340081911</v>
       </c>
       <c r="H96">
-        <v>64.22562317409744</v>
+        <v>-13.19499137395898</v>
       </c>
       <c r="I96">
-        <v>234.01666836934</v>
+        <v>128.1400892679735</v>
       </c>
       <c r="J96">
-        <v>150.1503191432602</v>
+        <v>65.05138886743634</v>
       </c>
       <c r="K96">
-        <v>40.20954464656222</v>
+        <v>32.95277966205</v>
       </c>
       <c r="L96">
-        <v>71.34105980124298</v>
+        <v>0.4651275393343894</v>
       </c>
       <c r="M96">
-        <v>228.9595784852775</v>
+        <v>129.6376501955383</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -8886,16 +8886,16 @@
         </is>
       </c>
       <c r="P96">
-        <v>509.2476851851851</v>
+        <v>183.961574074074</v>
       </c>
       <c r="Q96">
-        <v>509.2476851851852</v>
+        <v>183.9615740740741</v>
       </c>
       <c r="R96">
-        <v>0.2928263595690015</v>
+        <v>0.312416053386591</v>
       </c>
       <c r="S96">
-        <v>0.2948473277569419</v>
+        <v>0.3536140044183504</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
@@ -8943,34 +8943,34 @@
         <v>4</v>
       </c>
       <c r="D97">
-        <v>166.1849807703011</v>
+        <v>96.93868715169569</v>
       </c>
       <c r="E97">
-        <v>67.97193900308024</v>
+        <v>86.25570286724322</v>
       </c>
       <c r="F97">
-        <v>7.340780604948833</v>
+        <v>-96.24991969609766</v>
       </c>
       <c r="G97">
-        <v>325.0291809356535</v>
+        <v>290.127293999489</v>
       </c>
       <c r="H97">
-        <v>32.96242836491052</v>
+        <v>-72.11938392928926</v>
       </c>
       <c r="I97">
-        <v>299.4075331756918</v>
+        <v>265.9967582326806</v>
       </c>
       <c r="J97">
-        <v>150.1503191432602</v>
+        <v>65.05138886743634</v>
       </c>
       <c r="K97">
-        <v>40.20954464656222</v>
+        <v>32.95277966205</v>
       </c>
       <c r="L97">
-        <v>71.34105980124298</v>
+        <v>0.4651275393343894</v>
       </c>
       <c r="M97">
-        <v>228.9595784852775</v>
+        <v>129.6376501955383</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -8983,16 +8983,16 @@
         </is>
       </c>
       <c r="P97">
-        <v>509.2476851851851</v>
+        <v>183.961574074074</v>
       </c>
       <c r="Q97">
-        <v>509.2476851851852</v>
+        <v>183.9615740740741</v>
       </c>
       <c r="R97">
-        <v>0.3263342880191372</v>
+        <v>0.5269507376179673</v>
       </c>
       <c r="S97">
-        <v>0.2948473277569419</v>
+        <v>0.3536140044183504</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
@@ -9040,22 +9040,22 @@
         <v>-7</v>
       </c>
       <c r="D98">
-        <v>-38.09028796082376</v>
+        <v>-77.1875930586167</v>
       </c>
       <c r="E98">
-        <v>17.5882175371469</v>
+        <v>38.09729721921028</v>
       </c>
       <c r="F98">
-        <v>-77.48296728507646</v>
+        <v>-166.2174897189566</v>
       </c>
       <c r="G98">
-        <v>1.302391363428946</v>
+        <v>11.84230360172316</v>
       </c>
       <c r="H98">
-        <v>-72.56256088588745</v>
+        <v>-151.8569235165868</v>
       </c>
       <c r="I98">
-        <v>-3.618015035760074</v>
+        <v>-2.518262600646608</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -9068,16 +9068,16 @@
         </is>
       </c>
       <c r="P98">
-        <v>183.961574074074</v>
+        <v>509.2476851851851</v>
       </c>
       <c r="Q98">
-        <v>183.9615740740741</v>
+        <v>509.2476851851852</v>
       </c>
       <c r="R98">
-        <v>-0.207055675363412</v>
+        <v>-0.1515718093653147</v>
       </c>
       <c r="S98">
-        <v>0.3536140044183504</v>
+        <v>0.2948473277569419</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
@@ -9125,22 +9125,22 @@
         <v>-6</v>
       </c>
       <c r="D99">
-        <v>-26.77941766330324</v>
+        <v>-107.0079945718317</v>
       </c>
       <c r="E99">
-        <v>16.26049854177732</v>
+        <v>10.4627990820073</v>
       </c>
       <c r="F99">
-        <v>-63.19837844519381</v>
+        <v>-131.4585983952259</v>
       </c>
       <c r="G99">
-        <v>9.63954311858733</v>
+        <v>-82.55739074843747</v>
       </c>
       <c r="H99">
-        <v>-58.64940917585285</v>
+        <v>-127.5147039500447</v>
       </c>
       <c r="I99">
-        <v>5.090573849246375</v>
+        <v>-86.50128519361864</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -9153,16 +9153,16 @@
         </is>
       </c>
       <c r="P99">
-        <v>183.961574074074</v>
+        <v>509.2476851851851</v>
       </c>
       <c r="Q99">
-        <v>183.9615740740741</v>
+        <v>509.2476851851852</v>
       </c>
       <c r="R99">
-        <v>-0.1455707138737583</v>
+        <v>-0.2101295650129834</v>
       </c>
       <c r="S99">
-        <v>0.3536140044183504</v>
+        <v>0.2948473277569419</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
@@ -9210,22 +9210,22 @@
         <v>-5</v>
       </c>
       <c r="D100">
-        <v>8.642136378831529</v>
+        <v>-36.29697999661757</v>
       </c>
       <c r="E100">
-        <v>11.25920703931048</v>
+        <v>40.42277945524267</v>
       </c>
       <c r="F100">
-        <v>-16.57533272559454</v>
+        <v>-130.7613157975645</v>
       </c>
       <c r="G100">
-        <v>33.8596054832576</v>
+        <v>58.16735580432941</v>
       </c>
       <c r="H100">
-        <v>-13.42550391269687</v>
+        <v>-115.5241718838988</v>
       </c>
       <c r="I100">
-        <v>30.70977667035992</v>
+        <v>42.93021189066366</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -9238,16 +9238,16 @@
         </is>
       </c>
       <c r="P100">
-        <v>183.961574074074</v>
+        <v>509.2476851851851</v>
       </c>
       <c r="Q100">
-        <v>183.9615740740741</v>
+        <v>509.2476851851852</v>
       </c>
       <c r="R100">
-        <v>0.04697794320542006</v>
+        <v>-0.07127568971357891</v>
       </c>
       <c r="S100">
-        <v>0.3536140044183504</v>
+        <v>0.2948473277569419</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
@@ -9295,22 +9295,22 @@
         <v>-4</v>
       </c>
       <c r="D101">
-        <v>-0.6570992157771496</v>
+        <v>-60.75893758784332</v>
       </c>
       <c r="E101">
-        <v>15.08033981901844</v>
+        <v>32.23104393008393</v>
       </c>
       <c r="F101">
-        <v>-34.4328351217431</v>
+        <v>-136.0799372335429</v>
       </c>
       <c r="G101">
-        <v>33.1186366901888</v>
+        <v>14.56206205785621</v>
       </c>
       <c r="H101">
-        <v>-30.21402213567857</v>
+        <v>-123.9306228749361</v>
       </c>
       <c r="I101">
-        <v>28.89982370412427</v>
+        <v>2.4127476992495</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -9323,16 +9323,16 @@
         </is>
       </c>
       <c r="P101">
-        <v>183.961574074074</v>
+        <v>509.2476851851851</v>
       </c>
       <c r="Q101">
-        <v>183.9615740740741</v>
+        <v>509.2476851851852</v>
       </c>
       <c r="R101">
-        <v>-0.003571937341178443</v>
+        <v>-0.1193111708809215</v>
       </c>
       <c r="S101">
-        <v>0.3536140044183504</v>
+        <v>0.2948473277569419</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
@@ -9380,22 +9380,22 @@
         <v>-3</v>
       </c>
       <c r="D102">
-        <v>5.642110123211724</v>
+        <v>6.276694877709938</v>
       </c>
       <c r="E102">
-        <v>8.221140606328989</v>
+        <v>34.55293689537372</v>
       </c>
       <c r="F102">
-        <v>-12.77094139270923</v>
+        <v>-74.47035611138733</v>
       </c>
       <c r="G102">
-        <v>24.05516163913268</v>
+        <v>87.02374586680722</v>
       </c>
       <c r="H102">
-        <v>-10.47102937703287</v>
+        <v>-61.44581699730777</v>
       </c>
       <c r="I102">
-        <v>21.75524962345632</v>
+        <v>73.99920675272764</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -9408,16 +9408,16 @@
         </is>
       </c>
       <c r="P102">
-        <v>183.961574074074</v>
+        <v>509.2476851851851</v>
       </c>
       <c r="Q102">
-        <v>183.9615740740741</v>
+        <v>509.2476851851852</v>
       </c>
       <c r="R102">
-        <v>0.03067004700090176</v>
+        <v>0.01232542642864926</v>
       </c>
       <c r="S102">
-        <v>0.3536140044183504</v>
+        <v>0.2948473277569419</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
@@ -9465,22 +9465,22 @@
         <v>-2</v>
       </c>
       <c r="D103">
-        <v>3.357501717996773</v>
+        <v>20.96048444666444</v>
       </c>
       <c r="E103">
-        <v>10.11099640184762</v>
+        <v>50.8259753597028</v>
       </c>
       <c r="F103">
-        <v>-19.2882972701858</v>
+        <v>-97.81516800706414</v>
       </c>
       <c r="G103">
-        <v>26.00330070617934</v>
+        <v>139.736136900393</v>
       </c>
       <c r="H103">
-        <v>-16.45968707743863</v>
+        <v>-78.65659673747325</v>
       </c>
       <c r="I103">
-        <v>23.17469051343218</v>
+        <v>120.5775656308021</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -9493,16 +9493,16 @@
         </is>
       </c>
       <c r="P103">
-        <v>183.961574074074</v>
+        <v>509.2476851851851</v>
       </c>
       <c r="Q103">
-        <v>183.9615740740741</v>
+        <v>509.2476851851852</v>
       </c>
       <c r="R103">
-        <v>0.0182511034431834</v>
+        <v>0.04115970490674351</v>
       </c>
       <c r="S103">
-        <v>0.3536140044183504</v>
+        <v>0.2948473277569419</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
@@ -9563,16 +9563,16 @@
         </is>
       </c>
       <c r="P104">
-        <v>183.961574074074</v>
+        <v>509.2476851851851</v>
       </c>
       <c r="Q104">
-        <v>183.9615740740741</v>
+        <v>509.2476851851852</v>
       </c>
       <c r="R104">
         <v>0</v>
       </c>
       <c r="S104">
-        <v>0.3536140044183504</v>
+        <v>0.2948473277569419</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
@@ -9620,34 +9620,34 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>20.30937814568969</v>
+        <v>73.8885661431575</v>
       </c>
       <c r="E105">
-        <v>8.816502655625374</v>
+        <v>25.91788377423924</v>
       </c>
       <c r="F105">
-        <v>0.5628824510036488</v>
+        <v>13.32084395546131</v>
       </c>
       <c r="G105">
-        <v>40.05587384037572</v>
+        <v>134.4562883308537</v>
       </c>
       <c r="H105">
-        <v>3.029350471062216</v>
+        <v>23.09044739015356</v>
       </c>
       <c r="I105">
-        <v>37.58940582031716</v>
+        <v>124.6866848961615</v>
       </c>
       <c r="J105">
-        <v>65.05138886743634</v>
+        <v>150.1503191432602</v>
       </c>
       <c r="K105">
-        <v>32.95277966205</v>
+        <v>40.20954464656222</v>
       </c>
       <c r="L105">
-        <v>0.4651275393343894</v>
+        <v>71.34105980124298</v>
       </c>
       <c r="M105">
-        <v>129.6376501955383</v>
+        <v>228.9595784852775</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -9660,16 +9660,16 @@
         </is>
       </c>
       <c r="P105">
-        <v>183.961574074074</v>
+        <v>509.2476851851851</v>
       </c>
       <c r="Q105">
-        <v>183.9615740740741</v>
+        <v>509.2476851851852</v>
       </c>
       <c r="R105">
-        <v>0.1104001107182954</v>
+        <v>0.1450935729168574</v>
       </c>
       <c r="S105">
-        <v>0.3536140044183504</v>
+        <v>0.2948473277569419</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
@@ -9700,7 +9700,7 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>35.4%</t>
+          <t>29.5%</t>
         </is>
       </c>
       <c r="Z105">
@@ -9722,34 +9722,34 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>63.8612791381464</v>
+        <v>173.7247130293028</v>
       </c>
       <c r="E106">
-        <v>20.69784355510509</v>
+        <v>47.65185217969962</v>
       </c>
       <c r="F106">
-        <v>17.50390880498031</v>
+        <v>62.36669592846692</v>
       </c>
       <c r="G106">
-        <v>110.2186494713125</v>
+        <v>285.0827301301388</v>
       </c>
       <c r="H106">
-        <v>23.29425121249596</v>
+        <v>80.32879896046515</v>
       </c>
       <c r="I106">
-        <v>104.4283070637968</v>
+        <v>267.1206270981405</v>
       </c>
       <c r="J106">
-        <v>65.05138886743634</v>
+        <v>150.1503191432602</v>
       </c>
       <c r="K106">
-        <v>32.95277966205</v>
+        <v>40.20954464656222</v>
       </c>
       <c r="L106">
-        <v>0.4651275393343894</v>
+        <v>71.34105980124298</v>
       </c>
       <c r="M106">
-        <v>129.6376501955383</v>
+        <v>228.9595784852775</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -9762,16 +9762,16 @@
         </is>
       </c>
       <c r="P106">
-        <v>183.961574074074</v>
+        <v>509.2476851851851</v>
       </c>
       <c r="Q106">
-        <v>183.9615740740741</v>
+        <v>509.2476851851852</v>
       </c>
       <c r="R106">
-        <v>0.3471446657247669</v>
+        <v>0.3411399169465616</v>
       </c>
       <c r="S106">
-        <v>0.3536140044183504</v>
+        <v>0.2948473277569419</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
@@ -9819,34 +9819,34 @@
         <v>2</v>
       </c>
       <c r="D107">
-        <v>86.67505095464267</v>
+        <v>187.8321900018209</v>
       </c>
       <c r="E107">
-        <v>32.66544239661529</v>
+        <v>75.29069786185244</v>
       </c>
       <c r="F107">
-        <v>13.51361236105043</v>
+        <v>11.88472024941044</v>
       </c>
       <c r="G107">
-        <v>159.8364895482349</v>
+        <v>363.7796597542315</v>
       </c>
       <c r="H107">
-        <v>22.65196031820896</v>
+        <v>40.26513382170336</v>
       </c>
       <c r="I107">
-        <v>150.6981415910764</v>
+        <v>335.3992461819386</v>
       </c>
       <c r="J107">
-        <v>65.05138886743634</v>
+        <v>150.1503191432602</v>
       </c>
       <c r="K107">
-        <v>32.95277966205</v>
+        <v>40.20954464656222</v>
       </c>
       <c r="L107">
-        <v>0.4651275393343894</v>
+        <v>71.34105980124298</v>
       </c>
       <c r="M107">
-        <v>129.6376501955383</v>
+        <v>228.9595784852775</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -9859,16 +9859,16 @@
         </is>
       </c>
       <c r="P107">
-        <v>183.961574074074</v>
+        <v>509.2476851851851</v>
       </c>
       <c r="Q107">
-        <v>183.9615740740741</v>
+        <v>509.2476851851852</v>
       </c>
       <c r="R107">
-        <v>0.4711584546441314</v>
+        <v>0.3688425013331514</v>
       </c>
       <c r="S107">
-        <v>0.3536140044183504</v>
+        <v>0.2948473277569419</v>
       </c>
       <c r="T107" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
@@ -9916,34 +9916,34 @@
         <v>3</v>
       </c>
       <c r="D108">
-        <v>57.47254894700725</v>
+        <v>149.1211457717187</v>
       </c>
       <c r="E108">
-        <v>36.05553003952257</v>
+        <v>43.31483806195745</v>
       </c>
       <c r="F108">
-        <v>-23.28173611417655</v>
+        <v>47.89833370905859</v>
       </c>
       <c r="G108">
-        <v>138.2268340081911</v>
+        <v>250.3439578343789</v>
       </c>
       <c r="H108">
-        <v>-13.19499137395898</v>
+        <v>64.22562317409744</v>
       </c>
       <c r="I108">
-        <v>128.1400892679735</v>
+        <v>234.01666836934</v>
       </c>
       <c r="J108">
-        <v>65.05138886743634</v>
+        <v>150.1503191432602</v>
       </c>
       <c r="K108">
-        <v>32.95277966205</v>
+        <v>40.20954464656222</v>
       </c>
       <c r="L108">
-        <v>0.4651275393343894</v>
+        <v>71.34105980124298</v>
       </c>
       <c r="M108">
-        <v>129.6376501955383</v>
+        <v>228.9595784852775</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -9956,16 +9956,16 @@
         </is>
       </c>
       <c r="P108">
-        <v>183.961574074074</v>
+        <v>509.2476851851851</v>
       </c>
       <c r="Q108">
-        <v>183.9615740740741</v>
+        <v>509.2476851851852</v>
       </c>
       <c r="R108">
-        <v>0.312416053386591</v>
+        <v>0.2928263595690015</v>
       </c>
       <c r="S108">
-        <v>0.3536140044183504</v>
+        <v>0.2948473277569419</v>
       </c>
       <c r="T108" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
@@ -10013,34 +10013,34 @@
         <v>4</v>
       </c>
       <c r="D109">
-        <v>96.93868715169569</v>
+        <v>166.1849807703011</v>
       </c>
       <c r="E109">
-        <v>86.25570286724322</v>
+        <v>67.97193900308024</v>
       </c>
       <c r="F109">
-        <v>-96.24991969609766</v>
+        <v>7.340780604948833</v>
       </c>
       <c r="G109">
-        <v>290.127293999489</v>
+        <v>325.0291809356535</v>
       </c>
       <c r="H109">
-        <v>-72.11938392928926</v>
+        <v>32.96242836491052</v>
       </c>
       <c r="I109">
-        <v>265.9967582326806</v>
+        <v>299.4075331756918</v>
       </c>
       <c r="J109">
-        <v>65.05138886743634</v>
+        <v>150.1503191432602</v>
       </c>
       <c r="K109">
-        <v>32.95277966205</v>
+        <v>40.20954464656222</v>
       </c>
       <c r="L109">
-        <v>0.4651275393343894</v>
+        <v>71.34105980124298</v>
       </c>
       <c r="M109">
-        <v>129.6376501955383</v>
+        <v>228.9595784852775</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -10053,16 +10053,16 @@
         </is>
       </c>
       <c r="P109">
-        <v>183.961574074074</v>
+        <v>509.2476851851851</v>
       </c>
       <c r="Q109">
-        <v>183.9615740740741</v>
+        <v>509.2476851851852</v>
       </c>
       <c r="R109">
-        <v>0.5269507376179673</v>
+        <v>0.3263342880191372</v>
       </c>
       <c r="S109">
-        <v>0.3536140044183504</v>
+        <v>0.2948473277569419</v>
       </c>
       <c r="T109" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
@@ -14366,22 +14366,22 @@
         <v>-7</v>
       </c>
       <c r="D158">
-        <v>163.0052322401795</v>
+        <v>-12.34395550614371</v>
       </c>
       <c r="E158">
-        <v>38.73450017879758</v>
+        <v>10.28448461729413</v>
       </c>
       <c r="F158">
-        <v>75.47142648824338</v>
+        <v>-36.51928010718077</v>
       </c>
       <c r="G158">
-        <v>250.5390379921157</v>
+        <v>11.83136909489335</v>
       </c>
       <c r="H158">
-        <v>87.08700693057598</v>
+        <v>-32.50117495559641</v>
       </c>
       <c r="I158">
-        <v>238.9234575497831</v>
+        <v>7.813263943308986</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -14394,16 +14394,16 @@
         </is>
       </c>
       <c r="P158">
-        <v>674.4839357429719</v>
+        <v>174.6915261044176</v>
       </c>
       <c r="Q158">
-        <v>674.4839357429719</v>
+        <v>174.6915261044177</v>
       </c>
       <c r="R158">
-        <v>0.2416740023031424</v>
+        <v>-0.07066144409755404</v>
       </c>
       <c r="S158">
-        <v>0.4712745967028214</v>
+        <v>0.1513184428316189</v>
       </c>
       <c r="T158" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
@@ -14451,22 +14451,22 @@
         <v>-6</v>
       </c>
       <c r="D159">
-        <v>124.9891018553464</v>
+        <v>-17.55579550647627</v>
       </c>
       <c r="E159">
-        <v>28.04266133236444</v>
+        <v>13.51151766485303</v>
       </c>
       <c r="F159">
-        <v>61.61715027461685</v>
+        <v>-49.31677698056875</v>
       </c>
       <c r="G159">
-        <v>188.3610534360759</v>
+        <v>14.20518596761622</v>
       </c>
       <c r="H159">
-        <v>70.02649561325808</v>
+        <v>-44.03788350606492</v>
       </c>
       <c r="I159">
-        <v>179.9517080974346</v>
+        <v>8.926292493112392</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -14479,16 +14479,16 @@
         </is>
       </c>
       <c r="P159">
-        <v>674.4839357429719</v>
+        <v>174.6915261044176</v>
       </c>
       <c r="Q159">
-        <v>674.4839357429719</v>
+        <v>174.6915261044177</v>
       </c>
       <c r="R159">
-        <v>0.1853107171747029</v>
+        <v>-0.1004959765248299</v>
       </c>
       <c r="S159">
-        <v>0.4712745967028214</v>
+        <v>0.1513184428316189</v>
       </c>
       <c r="T159" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
@@ -14536,22 +14536,22 @@
         <v>-5</v>
       </c>
       <c r="D160">
-        <v>43.34402853413138</v>
+        <v>-37.80903474396949</v>
       </c>
       <c r="E160">
-        <v>28.99071800153304</v>
+        <v>14.69611120003567</v>
       </c>
       <c r="F160">
-        <v>-22.17038023431881</v>
+        <v>-72.35459262602058</v>
       </c>
       <c r="G160">
-        <v>108.8584373025816</v>
+        <v>-3.263476861918406</v>
       </c>
       <c r="H160">
-        <v>-13.47673463483039</v>
+        <v>-66.6128834088351</v>
       </c>
       <c r="I160">
-        <v>100.1647917030931</v>
+        <v>-9.005186079103879</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -14564,16 +14564,16 @@
         </is>
       </c>
       <c r="P160">
-        <v>674.4839357429719</v>
+        <v>174.6915261044176</v>
       </c>
       <c r="Q160">
-        <v>674.4839357429719</v>
+        <v>174.6915261044177</v>
       </c>
       <c r="R160">
-        <v>0.06426250683996816</v>
+        <v>-0.2164331355223839</v>
       </c>
       <c r="S160">
-        <v>0.4712745967028214</v>
+        <v>0.1513184428316189</v>
       </c>
       <c r="T160" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
@@ -14621,22 +14621,22 @@
         <v>-4</v>
       </c>
       <c r="D161">
-        <v>33.13436478940982</v>
+        <v>-31.84637513081566</v>
       </c>
       <c r="E161">
-        <v>57.63543498204047</v>
+        <v>15.2467237233331</v>
       </c>
       <c r="F161">
-        <v>-97.11254550653933</v>
+        <v>-67.68623573929872</v>
       </c>
       <c r="G161">
-        <v>163.381275085359</v>
+        <v>3.993485477667406</v>
       </c>
       <c r="H161">
-        <v>-79.8290120086894</v>
+        <v>-61.72940451078097</v>
       </c>
       <c r="I161">
-        <v>146.0977415875091</v>
+        <v>-1.963345750850355</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -14649,16 +14649,16 @@
         </is>
       </c>
       <c r="P161">
-        <v>674.4839357429719</v>
+        <v>174.6915261044176</v>
       </c>
       <c r="Q161">
-        <v>674.4839357429719</v>
+        <v>174.6915261044177</v>
       </c>
       <c r="R161">
-        <v>0.04912550623301495</v>
+        <v>-0.1823006292347589</v>
       </c>
       <c r="S161">
-        <v>0.4712745967028214</v>
+        <v>0.1513184428316189</v>
       </c>
       <c r="T161" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
@@ -14706,22 +14706,22 @@
         <v>-3</v>
       </c>
       <c r="D162">
-        <v>90.51740505647138</v>
+        <v>-3.35674152811087</v>
       </c>
       <c r="E162">
-        <v>62.49592140225901</v>
+        <v>10.92355806671464</v>
       </c>
       <c r="F162">
-        <v>-50.71343099567534</v>
+        <v>-29.03431039889628</v>
       </c>
       <c r="G162">
-        <v>231.7482411086181</v>
+        <v>22.32082734267454</v>
       </c>
       <c r="H162">
-        <v>-31.97235007260221</v>
+        <v>-24.76652192190354</v>
       </c>
       <c r="I162">
-        <v>213.007160185545</v>
+        <v>18.0530388656818</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -14734,16 +14734,16 @@
         </is>
       </c>
       <c r="P162">
-        <v>674.4839357429719</v>
+        <v>174.6915261044176</v>
       </c>
       <c r="Q162">
-        <v>674.4839357429719</v>
+        <v>174.6915261044177</v>
       </c>
       <c r="R162">
-        <v>0.1342024624452512</v>
+        <v>-0.01921525103687318</v>
       </c>
       <c r="S162">
-        <v>0.4712745967028214</v>
+        <v>0.1513184428316189</v>
       </c>
       <c r="T162" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
@@ -14791,22 +14791,22 @@
         <v>-2</v>
       </c>
       <c r="D163">
-        <v>106.6084815738026</v>
+        <v>10.92024237600776</v>
       </c>
       <c r="E163">
-        <v>58.39004907574816</v>
+        <v>6.1771794144817</v>
       </c>
       <c r="F163">
-        <v>-25.34373647599332</v>
+        <v>-3.600204979499059</v>
       </c>
       <c r="G163">
-        <v>238.5606996235985</v>
+        <v>25.44068973151457</v>
       </c>
       <c r="H163">
-        <v>-7.833911670190062</v>
+        <v>-1.186806802418591</v>
       </c>
       <c r="I163">
-        <v>221.0508748177952</v>
+        <v>23.02729155443411</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -14819,16 +14819,16 @@
         </is>
       </c>
       <c r="P163">
-        <v>674.4839357429719</v>
+        <v>174.6915261044176</v>
       </c>
       <c r="Q163">
-        <v>674.4839357429719</v>
+        <v>174.6915261044177</v>
       </c>
       <c r="R163">
-        <v>0.1580593338466526</v>
+        <v>0.06251157465692093</v>
       </c>
       <c r="S163">
-        <v>0.4712745967028214</v>
+        <v>0.1513184428316189</v>
       </c>
       <c r="T163" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
@@ -14889,16 +14889,16 @@
         </is>
       </c>
       <c r="P164">
-        <v>674.4839357429719</v>
+        <v>174.6915261044176</v>
       </c>
       <c r="Q164">
-        <v>674.4839357429719</v>
+        <v>174.6915261044177</v>
       </c>
       <c r="R164">
         <v>0</v>
       </c>
       <c r="S164">
-        <v>0.4712745967028214</v>
+        <v>0.1513184428316189</v>
       </c>
       <c r="T164" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
@@ -14946,34 +14946,34 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>171.0562274555566</v>
+        <v>8.094023801542946</v>
       </c>
       <c r="E165">
-        <v>70.11397811648769</v>
+        <v>11.87146267596719</v>
       </c>
       <c r="F165">
-        <v>12.60979565407999</v>
+        <v>-19.81174633282011</v>
       </c>
       <c r="G165">
-        <v>329.5026592570332</v>
+        <v>35.99979393590601</v>
       </c>
       <c r="H165">
-        <v>33.63535553441125</v>
+        <v>-15.17361548716424</v>
       </c>
       <c r="I165">
-        <v>308.4770993767019</v>
+        <v>31.36166309025013</v>
       </c>
       <c r="J165">
-        <v>317.8671447998008</v>
+        <v>26.43404970599958</v>
       </c>
       <c r="K165">
-        <v>103.5176843538528</v>
+        <v>26.10499940528397</v>
       </c>
       <c r="L165">
-        <v>114.9762117032639</v>
+        <v>-24.73080894479653</v>
       </c>
       <c r="M165">
-        <v>520.7580778963376</v>
+        <v>77.59890835679568</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -14986,16 +14986,16 @@
         </is>
       </c>
       <c r="P165">
-        <v>674.4839357429719</v>
+        <v>174.6915261044176</v>
       </c>
       <c r="Q165">
-        <v>674.4839357429719</v>
+        <v>174.6915261044177</v>
       </c>
       <c r="R165">
-        <v>0.2536105285697147</v>
+        <v>0.04633323654580095</v>
       </c>
       <c r="S165">
-        <v>0.4712745967028214</v>
+        <v>0.1513184428316189</v>
       </c>
       <c r="T165" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
@@ -15026,7 +15026,7 @@
       </c>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>47.1%</t>
+          <t>15.1%</t>
         </is>
       </c>
       <c r="Z165">
@@ -15048,34 +15048,34 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>339.1256389252061</v>
+        <v>18.46245793846967</v>
       </c>
       <c r="E166">
-        <v>103.3045950103765</v>
+        <v>19.84957746050079</v>
       </c>
       <c r="F166">
-        <v>105.673695278584</v>
+        <v>-28.19714593648757</v>
       </c>
       <c r="G166">
-        <v>572.5775825718282</v>
+        <v>65.12206181342691</v>
       </c>
       <c r="H166">
-        <v>136.652353267372</v>
+        <v>-20.44199899244989</v>
       </c>
       <c r="I166">
-        <v>541.5989245830401</v>
+        <v>57.36691486938923</v>
       </c>
       <c r="J166">
-        <v>317.8671447998008</v>
+        <v>26.43404970599958</v>
       </c>
       <c r="K166">
-        <v>103.5176843538528</v>
+        <v>26.10499940528397</v>
       </c>
       <c r="L166">
-        <v>114.9762117032639</v>
+        <v>-24.73080894479653</v>
       </c>
       <c r="M166">
-        <v>520.7580778963376</v>
+        <v>77.59890835679568</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -15088,16 +15088,16 @@
         </is>
       </c>
       <c r="P166">
-        <v>674.4839357429719</v>
+        <v>174.6915261044176</v>
       </c>
       <c r="Q166">
-        <v>674.4839357429719</v>
+        <v>174.6915261044177</v>
       </c>
       <c r="R166">
-        <v>0.5027927589582177</v>
+        <v>0.1056860532973659</v>
       </c>
       <c r="S166">
-        <v>0.4712745967028214</v>
+        <v>0.1513184428316189</v>
       </c>
       <c r="T166" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
@@ -15145,34 +15145,34 @@
         <v>2</v>
       </c>
       <c r="D167">
-        <v>356.9412991437159</v>
+        <v>11.91374920405707</v>
       </c>
       <c r="E167">
-        <v>94.26337311348114</v>
+        <v>20.03007285137294</v>
       </c>
       <c r="F167">
-        <v>143.9210780604378</v>
+        <v>-35.1701379311413</v>
       </c>
       <c r="G167">
-        <v>569.961520226994</v>
+        <v>58.99763633925544</v>
       </c>
       <c r="H167">
-        <v>172.1884827800317</v>
+        <v>-27.3444721923474</v>
       </c>
       <c r="I167">
-        <v>541.6941155074002</v>
+        <v>51.17197060046153</v>
       </c>
       <c r="J167">
-        <v>317.8671447998008</v>
+        <v>26.43404970599958</v>
       </c>
       <c r="K167">
-        <v>103.5176843538528</v>
+        <v>26.10499940528397</v>
       </c>
       <c r="L167">
-        <v>114.9762117032639</v>
+        <v>-24.73080894479653</v>
       </c>
       <c r="M167">
-        <v>520.7580778963376</v>
+        <v>77.59890835679568</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -15185,16 +15185,16 @@
         </is>
       </c>
       <c r="P167">
-        <v>674.4839357429719</v>
+        <v>174.6915261044176</v>
       </c>
       <c r="Q167">
-        <v>674.4839357429719</v>
+        <v>174.6915261044177</v>
       </c>
       <c r="R167">
-        <v>0.5292065240227409</v>
+        <v>0.06819878141619708</v>
       </c>
       <c r="S167">
-        <v>0.4712745967028214</v>
+        <v>0.1513184428316189</v>
       </c>
       <c r="T167" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
@@ -15242,34 +15242,34 @@
         <v>3</v>
       </c>
       <c r="D168">
-        <v>425.3007314585117</v>
+        <v>45.82913781875553</v>
       </c>
       <c r="E168">
-        <v>140.2587148573114</v>
+        <v>29.34399892421057</v>
       </c>
       <c r="F168">
-        <v>108.3383582598389</v>
+        <v>-23.14862095900202</v>
       </c>
       <c r="G168">
-        <v>742.2631046571844</v>
+        <v>114.8068965965131</v>
       </c>
       <c r="H168">
-        <v>150.3987018203084</v>
+        <v>-11.68404323507927</v>
       </c>
       <c r="I168">
-        <v>700.202761096715</v>
+        <v>103.3423188725903</v>
       </c>
       <c r="J168">
-        <v>317.8671447998008</v>
+        <v>26.43404970599958</v>
       </c>
       <c r="K168">
-        <v>103.5176843538528</v>
+        <v>26.10499940528397</v>
       </c>
       <c r="L168">
-        <v>114.9762117032639</v>
+        <v>-24.73080894479653</v>
       </c>
       <c r="M168">
-        <v>520.7580778963376</v>
+        <v>77.59890835679568</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -15282,16 +15282,16 @@
         </is>
       </c>
       <c r="P168">
-        <v>674.4839357429719</v>
+        <v>174.6915261044176</v>
       </c>
       <c r="Q168">
-        <v>674.4839357429719</v>
+        <v>174.6915261044177</v>
       </c>
       <c r="R168">
-        <v>0.6305572437244563</v>
+        <v>0.2623432220253332</v>
       </c>
       <c r="S168">
-        <v>0.4712745967028214</v>
+        <v>0.1513184428316189</v>
       </c>
       <c r="T168" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
@@ -15339,34 +15339,34 @@
         <v>4</v>
       </c>
       <c r="D169">
-        <v>296.9118270160137</v>
+        <v>47.87087976717267</v>
       </c>
       <c r="E169">
-        <v>131.3503381220332</v>
+        <v>87.08383142584883</v>
       </c>
       <c r="F169">
-        <v>0.08096745793119453</v>
+        <v>-156.8335823972902</v>
       </c>
       <c r="G169">
-        <v>593.7426865740961</v>
+        <v>252.5753419316356</v>
       </c>
       <c r="H169">
-        <v>39.46989493967016</v>
+        <v>-122.8102934632483</v>
       </c>
       <c r="I169">
-        <v>554.3537590923572</v>
+        <v>218.5520529975937</v>
       </c>
       <c r="J169">
-        <v>317.8671447998008</v>
+        <v>26.43404970599958</v>
       </c>
       <c r="K169">
-        <v>103.5176843538528</v>
+        <v>26.10499940528397</v>
       </c>
       <c r="L169">
-        <v>114.9762117032639</v>
+        <v>-24.73080894479653</v>
       </c>
       <c r="M169">
-        <v>520.7580778963376</v>
+        <v>77.59890835679568</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -15379,16 +15379,16 @@
         </is>
       </c>
       <c r="P169">
-        <v>674.4839357429719</v>
+        <v>174.6915261044176</v>
       </c>
       <c r="Q169">
-        <v>674.4839357429719</v>
+        <v>174.6915261044177</v>
       </c>
       <c r="R169">
-        <v>0.4402059282389773</v>
+        <v>0.2740309208733971</v>
       </c>
       <c r="S169">
-        <v>0.4712745967028214</v>
+        <v>0.1513184428316189</v>
       </c>
       <c r="T169" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
@@ -15436,22 +15436,22 @@
         <v>-7</v>
       </c>
       <c r="D170">
-        <v>-12.34395550614371</v>
+        <v>163.0052322401795</v>
       </c>
       <c r="E170">
-        <v>10.28448461729413</v>
+        <v>38.73450017879758</v>
       </c>
       <c r="F170">
-        <v>-36.51928010718077</v>
+        <v>75.47142648824338</v>
       </c>
       <c r="G170">
-        <v>11.83136909489335</v>
+        <v>250.5390379921157</v>
       </c>
       <c r="H170">
-        <v>-32.50117495559641</v>
+        <v>87.08700693057598</v>
       </c>
       <c r="I170">
-        <v>7.813263943308986</v>
+        <v>238.9234575497831</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -15464,16 +15464,16 @@
         </is>
       </c>
       <c r="P170">
-        <v>174.6915261044176</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="Q170">
-        <v>174.6915261044177</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="R170">
-        <v>-0.07066144409755404</v>
+        <v>0.2416740023031424</v>
       </c>
       <c r="S170">
-        <v>0.1513184428316189</v>
+        <v>0.4712745967028214</v>
       </c>
       <c r="T170" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
@@ -15521,22 +15521,22 @@
         <v>-6</v>
       </c>
       <c r="D171">
-        <v>-17.55579550647627</v>
+        <v>124.9891018553464</v>
       </c>
       <c r="E171">
-        <v>13.51151766485303</v>
+        <v>28.04266133236444</v>
       </c>
       <c r="F171">
-        <v>-49.31677698056875</v>
+        <v>61.61715027461685</v>
       </c>
       <c r="G171">
-        <v>14.20518596761622</v>
+        <v>188.3610534360759</v>
       </c>
       <c r="H171">
-        <v>-44.03788350606492</v>
+        <v>70.02649561325808</v>
       </c>
       <c r="I171">
-        <v>8.926292493112392</v>
+        <v>179.9517080974346</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="P171">
-        <v>174.6915261044176</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="Q171">
-        <v>174.6915261044177</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="R171">
-        <v>-0.1004959765248299</v>
+        <v>0.1853107171747029</v>
       </c>
       <c r="S171">
-        <v>0.1513184428316189</v>
+        <v>0.4712745967028214</v>
       </c>
       <c r="T171" t="inlineStr">
         <is>
@@ -15567,7 +15567,7 @@
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
@@ -15606,22 +15606,22 @@
         <v>-5</v>
       </c>
       <c r="D172">
-        <v>-37.80903474396949</v>
+        <v>43.34402853413138</v>
       </c>
       <c r="E172">
-        <v>14.69611120003567</v>
+        <v>28.99071800153304</v>
       </c>
       <c r="F172">
-        <v>-72.35459262602058</v>
+        <v>-22.17038023431881</v>
       </c>
       <c r="G172">
-        <v>-3.263476861918406</v>
+        <v>108.8584373025816</v>
       </c>
       <c r="H172">
-        <v>-66.6128834088351</v>
+        <v>-13.47673463483039</v>
       </c>
       <c r="I172">
-        <v>-9.005186079103879</v>
+        <v>100.1647917030931</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -15634,16 +15634,16 @@
         </is>
       </c>
       <c r="P172">
-        <v>174.6915261044176</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="Q172">
-        <v>174.6915261044177</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="R172">
-        <v>-0.2164331355223839</v>
+        <v>0.06426250683996816</v>
       </c>
       <c r="S172">
-        <v>0.1513184428316189</v>
+        <v>0.4712745967028214</v>
       </c>
       <c r="T172" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
@@ -15691,22 +15691,22 @@
         <v>-4</v>
       </c>
       <c r="D173">
-        <v>-31.84637513081566</v>
+        <v>33.13436478940982</v>
       </c>
       <c r="E173">
-        <v>15.2467237233331</v>
+        <v>57.63543498204047</v>
       </c>
       <c r="F173">
-        <v>-67.68623573929872</v>
+        <v>-97.11254550653933</v>
       </c>
       <c r="G173">
-        <v>3.993485477667406</v>
+        <v>163.381275085359</v>
       </c>
       <c r="H173">
-        <v>-61.72940451078097</v>
+        <v>-79.8290120086894</v>
       </c>
       <c r="I173">
-        <v>-1.963345750850355</v>
+        <v>146.0977415875091</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -15719,16 +15719,16 @@
         </is>
       </c>
       <c r="P173">
-        <v>174.6915261044176</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="Q173">
-        <v>174.6915261044177</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="R173">
-        <v>-0.1823006292347589</v>
+        <v>0.04912550623301495</v>
       </c>
       <c r="S173">
-        <v>0.1513184428316189</v>
+        <v>0.4712745967028214</v>
       </c>
       <c r="T173" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
@@ -15776,22 +15776,22 @@
         <v>-3</v>
       </c>
       <c r="D174">
-        <v>-3.35674152811087</v>
+        <v>90.51740505647138</v>
       </c>
       <c r="E174">
-        <v>10.92355806671464</v>
+        <v>62.49592140225901</v>
       </c>
       <c r="F174">
-        <v>-29.03431039889628</v>
+        <v>-50.71343099567534</v>
       </c>
       <c r="G174">
-        <v>22.32082734267454</v>
+        <v>231.7482411086181</v>
       </c>
       <c r="H174">
-        <v>-24.76652192190354</v>
+        <v>-31.97235007260221</v>
       </c>
       <c r="I174">
-        <v>18.0530388656818</v>
+        <v>213.007160185545</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -15804,16 +15804,16 @@
         </is>
       </c>
       <c r="P174">
-        <v>174.6915261044176</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="Q174">
-        <v>174.6915261044177</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="R174">
-        <v>-0.01921525103687318</v>
+        <v>0.1342024624452512</v>
       </c>
       <c r="S174">
-        <v>0.1513184428316189</v>
+        <v>0.4712745967028214</v>
       </c>
       <c r="T174" t="inlineStr">
         <is>
@@ -15822,7 +15822,7 @@
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
@@ -15861,22 +15861,22 @@
         <v>-2</v>
       </c>
       <c r="D175">
-        <v>10.92024237600776</v>
+        <v>106.6084815738026</v>
       </c>
       <c r="E175">
-        <v>6.1771794144817</v>
+        <v>58.39004907574816</v>
       </c>
       <c r="F175">
-        <v>-3.600204979499059</v>
+        <v>-25.34373647599332</v>
       </c>
       <c r="G175">
-        <v>25.44068973151457</v>
+        <v>238.5606996235985</v>
       </c>
       <c r="H175">
-        <v>-1.186806802418591</v>
+        <v>-7.833911670190062</v>
       </c>
       <c r="I175">
-        <v>23.02729155443411</v>
+        <v>221.0508748177952</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -15889,16 +15889,16 @@
         </is>
       </c>
       <c r="P175">
-        <v>174.6915261044176</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="Q175">
-        <v>174.6915261044177</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="R175">
-        <v>0.06251157465692093</v>
+        <v>0.1580593338466526</v>
       </c>
       <c r="S175">
-        <v>0.1513184428316189</v>
+        <v>0.4712745967028214</v>
       </c>
       <c r="T175" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
@@ -15959,16 +15959,16 @@
         </is>
       </c>
       <c r="P176">
-        <v>174.6915261044176</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="Q176">
-        <v>174.6915261044177</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="R176">
         <v>0</v>
       </c>
       <c r="S176">
-        <v>0.1513184428316189</v>
+        <v>0.4712745967028214</v>
       </c>
       <c r="T176" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
@@ -16016,34 +16016,34 @@
         <v>0</v>
       </c>
       <c r="D177">
-        <v>8.094023801542946</v>
+        <v>171.0562274555566</v>
       </c>
       <c r="E177">
-        <v>11.87146267596719</v>
+        <v>70.11397811648769</v>
       </c>
       <c r="F177">
-        <v>-19.81174633282011</v>
+        <v>12.60979565407999</v>
       </c>
       <c r="G177">
-        <v>35.99979393590601</v>
+        <v>329.5026592570332</v>
       </c>
       <c r="H177">
-        <v>-15.17361548716424</v>
+        <v>33.63535553441125</v>
       </c>
       <c r="I177">
-        <v>31.36166309025013</v>
+        <v>308.4770993767019</v>
       </c>
       <c r="J177">
-        <v>26.43404970599958</v>
+        <v>317.8671447998008</v>
       </c>
       <c r="K177">
-        <v>26.10499940528397</v>
+        <v>103.5176843538528</v>
       </c>
       <c r="L177">
-        <v>-24.73080894479653</v>
+        <v>114.9762117032639</v>
       </c>
       <c r="M177">
-        <v>77.59890835679568</v>
+        <v>520.7580778963376</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -16056,16 +16056,16 @@
         </is>
       </c>
       <c r="P177">
-        <v>174.6915261044176</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="Q177">
-        <v>174.6915261044177</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="R177">
-        <v>0.04633323654580095</v>
+        <v>0.2536105285697147</v>
       </c>
       <c r="S177">
-        <v>0.1513184428316189</v>
+        <v>0.4712745967028214</v>
       </c>
       <c r="T177" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
@@ -16096,7 +16096,7 @@
       </c>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>15.1%</t>
+          <t>47.1%</t>
         </is>
       </c>
       <c r="Z177">
@@ -16118,34 +16118,34 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>18.46245793846967</v>
+        <v>339.1256389252061</v>
       </c>
       <c r="E178">
-        <v>19.84957746050079</v>
+        <v>103.3045950103765</v>
       </c>
       <c r="F178">
-        <v>-28.19714593648757</v>
+        <v>105.673695278584</v>
       </c>
       <c r="G178">
-        <v>65.12206181342691</v>
+        <v>572.5775825718282</v>
       </c>
       <c r="H178">
-        <v>-20.44199899244989</v>
+        <v>136.652353267372</v>
       </c>
       <c r="I178">
-        <v>57.36691486938923</v>
+        <v>541.5989245830401</v>
       </c>
       <c r="J178">
-        <v>26.43404970599958</v>
+        <v>317.8671447998008</v>
       </c>
       <c r="K178">
-        <v>26.10499940528397</v>
+        <v>103.5176843538528</v>
       </c>
       <c r="L178">
-        <v>-24.73080894479653</v>
+        <v>114.9762117032639</v>
       </c>
       <c r="M178">
-        <v>77.59890835679568</v>
+        <v>520.7580778963376</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -16158,16 +16158,16 @@
         </is>
       </c>
       <c r="P178">
-        <v>174.6915261044176</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="Q178">
-        <v>174.6915261044177</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="R178">
-        <v>0.1056860532973659</v>
+        <v>0.5027927589582177</v>
       </c>
       <c r="S178">
-        <v>0.1513184428316189</v>
+        <v>0.4712745967028214</v>
       </c>
       <c r="T178" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
@@ -16215,34 +16215,34 @@
         <v>2</v>
       </c>
       <c r="D179">
-        <v>11.91374920405707</v>
+        <v>356.9412991437159</v>
       </c>
       <c r="E179">
-        <v>20.03007285137294</v>
+        <v>94.26337311348114</v>
       </c>
       <c r="F179">
-        <v>-35.1701379311413</v>
+        <v>143.9210780604378</v>
       </c>
       <c r="G179">
-        <v>58.99763633925544</v>
+        <v>569.961520226994</v>
       </c>
       <c r="H179">
-        <v>-27.3444721923474</v>
+        <v>172.1884827800317</v>
       </c>
       <c r="I179">
-        <v>51.17197060046153</v>
+        <v>541.6941155074002</v>
       </c>
       <c r="J179">
-        <v>26.43404970599958</v>
+        <v>317.8671447998008</v>
       </c>
       <c r="K179">
-        <v>26.10499940528397</v>
+        <v>103.5176843538528</v>
       </c>
       <c r="L179">
-        <v>-24.73080894479653</v>
+        <v>114.9762117032639</v>
       </c>
       <c r="M179">
-        <v>77.59890835679568</v>
+        <v>520.7580778963376</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -16255,16 +16255,16 @@
         </is>
       </c>
       <c r="P179">
-        <v>174.6915261044176</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="Q179">
-        <v>174.6915261044177</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="R179">
-        <v>0.06819878141619708</v>
+        <v>0.5292065240227409</v>
       </c>
       <c r="S179">
-        <v>0.1513184428316189</v>
+        <v>0.4712745967028214</v>
       </c>
       <c r="T179" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
@@ -16312,34 +16312,34 @@
         <v>3</v>
       </c>
       <c r="D180">
-        <v>45.82913781875553</v>
+        <v>425.3007314585117</v>
       </c>
       <c r="E180">
-        <v>29.34399892421057</v>
+        <v>140.2587148573114</v>
       </c>
       <c r="F180">
-        <v>-23.14862095900202</v>
+        <v>108.3383582598389</v>
       </c>
       <c r="G180">
-        <v>114.8068965965131</v>
+        <v>742.2631046571844</v>
       </c>
       <c r="H180">
-        <v>-11.68404323507927</v>
+        <v>150.3987018203084</v>
       </c>
       <c r="I180">
-        <v>103.3423188725903</v>
+        <v>700.202761096715</v>
       </c>
       <c r="J180">
-        <v>26.43404970599958</v>
+        <v>317.8671447998008</v>
       </c>
       <c r="K180">
-        <v>26.10499940528397</v>
+        <v>103.5176843538528</v>
       </c>
       <c r="L180">
-        <v>-24.73080894479653</v>
+        <v>114.9762117032639</v>
       </c>
       <c r="M180">
-        <v>77.59890835679568</v>
+        <v>520.7580778963376</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -16352,16 +16352,16 @@
         </is>
       </c>
       <c r="P180">
-        <v>174.6915261044176</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="Q180">
-        <v>174.6915261044177</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="R180">
-        <v>0.2623432220253332</v>
+        <v>0.6305572437244563</v>
       </c>
       <c r="S180">
-        <v>0.1513184428316189</v>
+        <v>0.4712745967028214</v>
       </c>
       <c r="T180" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V180" t="inlineStr">
@@ -16409,34 +16409,34 @@
         <v>4</v>
       </c>
       <c r="D181">
-        <v>47.87087976717267</v>
+        <v>296.9118270160137</v>
       </c>
       <c r="E181">
-        <v>87.08383142584883</v>
+        <v>131.3503381220332</v>
       </c>
       <c r="F181">
-        <v>-156.8335823972902</v>
+        <v>0.08096745793119453</v>
       </c>
       <c r="G181">
-        <v>252.5753419316356</v>
+        <v>593.7426865740961</v>
       </c>
       <c r="H181">
-        <v>-122.8102934632483</v>
+        <v>39.46989493967016</v>
       </c>
       <c r="I181">
-        <v>218.5520529975937</v>
+        <v>554.3537590923572</v>
       </c>
       <c r="J181">
-        <v>26.43404970599958</v>
+        <v>317.8671447998008</v>
       </c>
       <c r="K181">
-        <v>26.10499940528397</v>
+        <v>103.5176843538528</v>
       </c>
       <c r="L181">
-        <v>-24.73080894479653</v>
+        <v>114.9762117032639</v>
       </c>
       <c r="M181">
-        <v>77.59890835679568</v>
+        <v>520.7580778963376</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -16449,16 +16449,16 @@
         </is>
       </c>
       <c r="P181">
-        <v>174.6915261044176</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="Q181">
-        <v>174.6915261044177</v>
+        <v>674.4839357429719</v>
       </c>
       <c r="R181">
-        <v>0.2740309208733971</v>
+        <v>0.4402059282389773</v>
       </c>
       <c r="S181">
-        <v>0.1513184428316189</v>
+        <v>0.4712745967028214</v>
       </c>
       <c r="T181" t="inlineStr">
         <is>
@@ -16467,7 +16467,7 @@
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V181" t="inlineStr">
@@ -20762,22 +20762,22 @@
         <v>-7</v>
       </c>
       <c r="D230">
-        <v>122.5562284652511</v>
+        <v>-46.44846296182512</v>
       </c>
       <c r="E230">
-        <v>82.89339545675311</v>
+        <v>23.19784792733014</v>
       </c>
       <c r="F230">
-        <v>-57.4454500413748</v>
+        <v>-102.2129139166176</v>
       </c>
       <c r="G230">
-        <v>302.5579069718771</v>
+        <v>9.315987992967386</v>
       </c>
       <c r="H230">
-        <v>-39.91184118622108</v>
+        <v>-91.91540941822933</v>
       </c>
       <c r="I230">
-        <v>285.0242981167233</v>
+        <v>-0.9815165054209061</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -20790,16 +20790,16 @@
         </is>
       </c>
       <c r="P230">
-        <v>1116.240963855422</v>
+        <v>334.2726506024097</v>
       </c>
       <c r="Q230">
-        <v>1116.240963855422</v>
+        <v>334.2726506024096</v>
       </c>
       <c r="R230">
-        <v>0.1097937026445886</v>
+        <v>-0.1389538237068393</v>
       </c>
       <c r="S230">
-        <v>0.3895083942090139</v>
+        <v>0.2392560814078899</v>
       </c>
       <c r="T230" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
       </c>
       <c r="U230" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V230" t="inlineStr">
@@ -20847,22 +20847,22 @@
         <v>-6</v>
       </c>
       <c r="D231">
-        <v>45.34413183407138</v>
+        <v>-40.91723190138538</v>
       </c>
       <c r="E231">
-        <v>30.1899546447391</v>
+        <v>19.94966788925161</v>
       </c>
       <c r="F231">
-        <v>-20.21287038725858</v>
+        <v>-88.87350267527552</v>
       </c>
       <c r="G231">
-        <v>110.9011340554013</v>
+        <v>7.039038872504769</v>
       </c>
       <c r="H231">
-        <v>-13.82709196451498</v>
+        <v>-80.01786246785373</v>
       </c>
       <c r="I231">
-        <v>104.5153556326577</v>
+        <v>-1.816601334917024</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -20875,16 +20875,16 @@
         </is>
       </c>
       <c r="P231">
-        <v>1116.240963855422</v>
+        <v>334.2726506024097</v>
       </c>
       <c r="Q231">
-        <v>1116.240963855422</v>
+        <v>334.2726506024096</v>
       </c>
       <c r="R231">
-        <v>0.04062217146865473</v>
+        <v>-0.1224067593554135</v>
       </c>
       <c r="S231">
-        <v>0.3895083942090139</v>
+        <v>0.2392560814078899</v>
       </c>
       <c r="T231" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
       </c>
       <c r="U231" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V231" t="inlineStr">
@@ -20932,22 +20932,22 @@
         <v>-5</v>
       </c>
       <c r="D232">
-        <v>29.25800630045337</v>
+        <v>-31.80125396668974</v>
       </c>
       <c r="E232">
-        <v>55.91962655110208</v>
+        <v>20.74462131735613</v>
       </c>
       <c r="F232">
-        <v>-92.17056572508835</v>
+        <v>-81.66848396368314</v>
       </c>
       <c r="G232">
-        <v>150.6865783259951</v>
+        <v>18.06597603030368</v>
       </c>
       <c r="H232">
-        <v>-80.34244776863643</v>
+        <v>-72.45996462162961</v>
       </c>
       <c r="I232">
-        <v>138.8584603695432</v>
+        <v>8.857456688250132</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -20960,16 +20960,16 @@
         </is>
       </c>
       <c r="P232">
-        <v>1116.240963855422</v>
+        <v>334.2726506024097</v>
       </c>
       <c r="Q232">
-        <v>1116.240963855422</v>
+        <v>334.2726506024096</v>
       </c>
       <c r="R232">
-        <v>0.02621119207039148</v>
+        <v>-0.09513567415515176</v>
       </c>
       <c r="S232">
-        <v>0.3895083942090139</v>
+        <v>0.2392560814078899</v>
       </c>
       <c r="T232" t="inlineStr">
         <is>
@@ -20978,7 +20978,7 @@
       </c>
       <c r="U232" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V232" t="inlineStr">
@@ -21017,22 +21017,22 @@
         <v>-4</v>
       </c>
       <c r="D233">
-        <v>-12.20263142053909</v>
+        <v>-34.8858374149986</v>
       </c>
       <c r="E233">
-        <v>79.31592657234391</v>
+        <v>21.98166230292028</v>
       </c>
       <c r="F233">
-        <v>-184.4358936323488</v>
+        <v>-87.72674460759467</v>
       </c>
       <c r="G233">
-        <v>160.0306307912707</v>
+        <v>17.95506977759747</v>
       </c>
       <c r="H233">
-        <v>-167.6589909027566</v>
+        <v>-77.96910384904413</v>
       </c>
       <c r="I233">
-        <v>143.2537280616784</v>
+        <v>8.197429019046922</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -21045,16 +21045,16 @@
         </is>
       </c>
       <c r="P233">
-        <v>1116.240963855422</v>
+        <v>334.2726506024097</v>
       </c>
       <c r="Q233">
-        <v>1116.240963855422</v>
+        <v>334.2726506024096</v>
       </c>
       <c r="R233">
-        <v>-0.01093189715811183</v>
+        <v>-0.104363421153747</v>
       </c>
       <c r="S233">
-        <v>0.3895083942090139</v>
+        <v>0.2392560814078899</v>
       </c>
       <c r="T233" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
       </c>
       <c r="U233" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V233" t="inlineStr">
@@ -21102,22 +21102,22 @@
         <v>-3</v>
       </c>
       <c r="D234">
-        <v>107.1685723250566</v>
+        <v>0.1920689756434192</v>
       </c>
       <c r="E234">
-        <v>78.74236116665499</v>
+        <v>17.11212608806454</v>
       </c>
       <c r="F234">
-        <v>-63.81920180910284</v>
+        <v>-40.94313972817213</v>
       </c>
       <c r="G234">
-        <v>278.156346459216</v>
+        <v>41.32727767945897</v>
       </c>
       <c r="H234">
-        <v>-47.16361961923253</v>
+        <v>-33.34708185587137</v>
       </c>
       <c r="I234">
-        <v>261.5007642693457</v>
+        <v>33.7312198071582</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -21130,16 +21130,16 @@
         </is>
       </c>
       <c r="P234">
-        <v>1116.240963855422</v>
+        <v>334.2726506024097</v>
       </c>
       <c r="Q234">
-        <v>1116.240963855422</v>
+        <v>334.2726506024096</v>
       </c>
       <c r="R234">
-        <v>0.09600845677164853</v>
+        <v>0.0005745877662958127</v>
       </c>
       <c r="S234">
-        <v>0.3895083942090139</v>
+        <v>0.2392560814078899</v>
       </c>
       <c r="T234" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
       </c>
       <c r="U234" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V234" t="inlineStr">
@@ -21187,22 +21187,22 @@
         <v>-2</v>
       </c>
       <c r="D235">
-        <v>133.7461456848702</v>
+        <v>13.5930074885502</v>
       </c>
       <c r="E235">
-        <v>89.48628919115176</v>
+        <v>15.17356992914668</v>
       </c>
       <c r="F235">
-        <v>-60.57189580662964</v>
+        <v>-22.88217757058376</v>
       </c>
       <c r="G235">
-        <v>328.06418717637</v>
+        <v>50.06819254768418</v>
       </c>
       <c r="H235">
-        <v>-41.64375823992316</v>
+        <v>-16.14664308947726</v>
       </c>
       <c r="I235">
-        <v>309.1360496096635</v>
+        <v>43.33265806657766</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -21215,16 +21215,16 @@
         </is>
       </c>
       <c r="P235">
-        <v>1116.240963855422</v>
+        <v>334.2726506024097</v>
       </c>
       <c r="Q235">
-        <v>1116.240963855422</v>
+        <v>334.2726506024096</v>
       </c>
       <c r="R235">
-        <v>0.1198183456938544</v>
+        <v>0.0406644320558489</v>
       </c>
       <c r="S235">
-        <v>0.3895083942090139</v>
+        <v>0.2392560814078899</v>
       </c>
       <c r="T235" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
       </c>
       <c r="U235" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V235" t="inlineStr">
@@ -21285,16 +21285,16 @@
         </is>
       </c>
       <c r="P236">
-        <v>1116.240963855422</v>
+        <v>334.2726506024097</v>
       </c>
       <c r="Q236">
-        <v>1116.240963855422</v>
+        <v>334.2726506024096</v>
       </c>
       <c r="R236">
         <v>0</v>
       </c>
       <c r="S236">
-        <v>0.3895083942090139</v>
+        <v>0.2392560814078899</v>
       </c>
       <c r="T236" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
       </c>
       <c r="U236" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V236" t="inlineStr">
@@ -21342,34 +21342,34 @@
         <v>0</v>
       </c>
       <c r="D237">
-        <v>233.4083705572345</v>
+        <v>26.75923316813839</v>
       </c>
       <c r="E237">
-        <v>84.79896175759995</v>
+        <v>12.35507868745696</v>
       </c>
       <c r="F237">
-        <v>49.26878539630769</v>
+        <v>-2.940684758196191</v>
       </c>
       <c r="G237">
-        <v>417.5479557181613</v>
+        <v>56.45915109447296</v>
       </c>
       <c r="H237">
-        <v>67.20545958594926</v>
+        <v>2.543723914564342</v>
       </c>
       <c r="I237">
-        <v>399.6112815285197</v>
+        <v>50.97474242171243</v>
       </c>
       <c r="J237">
-        <v>434.7852253816473</v>
+        <v>79.97676450496124</v>
       </c>
       <c r="K237">
-        <v>108.6636331473864</v>
+        <v>36.84286176258035</v>
       </c>
       <c r="L237">
-        <v>221.8084179834972</v>
+        <v>7.766082362915881</v>
       </c>
       <c r="M237">
-        <v>647.7620327797973</v>
+        <v>152.1874466470066</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -21382,16 +21382,16 @@
         </is>
       </c>
       <c r="P237">
-        <v>1116.240963855422</v>
+        <v>334.2726506024097</v>
       </c>
       <c r="Q237">
-        <v>1116.240963855422</v>
+        <v>334.2726506024096</v>
       </c>
       <c r="R237">
-        <v>0.2091021366489343</v>
+        <v>0.08005211649805696</v>
       </c>
       <c r="S237">
-        <v>0.3895083942090139</v>
+        <v>0.2392560814078899</v>
       </c>
       <c r="T237" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
       </c>
       <c r="U237" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V237" t="inlineStr">
@@ -21422,7 +21422,7 @@
       </c>
       <c r="Y237" t="inlineStr">
         <is>
-          <t>39.0%</t>
+          <t>23.9%</t>
         </is>
       </c>
       <c r="Z237">
@@ -21444,34 +21444,34 @@
         <v>1</v>
       </c>
       <c r="D238">
-        <v>491.065555181495</v>
+        <v>68.5574129564626</v>
       </c>
       <c r="E238">
-        <v>123.5320469972485</v>
+        <v>37.03805491643562</v>
       </c>
       <c r="F238">
-        <v>222.8176967563322</v>
+        <v>-20.47700106843331</v>
       </c>
       <c r="G238">
-        <v>759.3134136066577</v>
+        <v>157.5918269813585</v>
       </c>
       <c r="H238">
-        <v>248.9471921303786</v>
+        <v>-4.035840737167874</v>
       </c>
       <c r="I238">
-        <v>733.1839182326114</v>
+        <v>141.1506666500931</v>
       </c>
       <c r="J238">
-        <v>434.7852253816473</v>
+        <v>79.97676450496124</v>
       </c>
       <c r="K238">
-        <v>108.6636331473864</v>
+        <v>36.84286176258035</v>
       </c>
       <c r="L238">
-        <v>221.8084179834972</v>
+        <v>7.766082362915881</v>
       </c>
       <c r="M238">
-        <v>647.7620327797973</v>
+        <v>152.1874466470066</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="P238">
-        <v>1116.240963855422</v>
+        <v>334.2726506024097</v>
       </c>
       <c r="Q238">
-        <v>1116.240963855422</v>
+        <v>334.2726506024096</v>
       </c>
       <c r="R238">
-        <v>0.4399279108028676</v>
+        <v>0.2050942930356756</v>
       </c>
       <c r="S238">
-        <v>0.3895083942090139</v>
+        <v>0.2392560814078899</v>
       </c>
       <c r="T238" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
       </c>
       <c r="U238" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V238" t="inlineStr">
@@ -21541,34 +21541,34 @@
         <v>2</v>
       </c>
       <c r="D239">
-        <v>497.9247609172706</v>
+        <v>75.59129760513292</v>
       </c>
       <c r="E239">
-        <v>140.0242384486393</v>
+        <v>42.20259359083605</v>
       </c>
       <c r="F239">
-        <v>193.8643733135711</v>
+        <v>-25.85796043955813</v>
       </c>
       <c r="G239">
-        <v>801.9851485209701</v>
+        <v>177.040555649824</v>
       </c>
       <c r="H239">
-        <v>223.482296595289</v>
+        <v>-7.124265887086622</v>
       </c>
       <c r="I239">
-        <v>772.3672252392523</v>
+        <v>158.3068610973525</v>
       </c>
       <c r="J239">
-        <v>434.7852253816473</v>
+        <v>79.97676450496124</v>
       </c>
       <c r="K239">
-        <v>108.6636331473864</v>
+        <v>36.84286176258035</v>
       </c>
       <c r="L239">
-        <v>221.8084179834972</v>
+        <v>7.766082362915881</v>
       </c>
       <c r="M239">
-        <v>647.7620327797973</v>
+        <v>152.1874466470066</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -21581,16 +21581,16 @@
         </is>
       </c>
       <c r="P239">
-        <v>1116.240963855422</v>
+        <v>334.2726506024097</v>
       </c>
       <c r="Q239">
-        <v>1116.240963855422</v>
+        <v>334.2726506024096</v>
       </c>
       <c r="R239">
-        <v>0.4460728257073381</v>
+        <v>0.2261366506320694</v>
       </c>
       <c r="S239">
-        <v>0.3895083942090139</v>
+        <v>0.2392560814078899</v>
       </c>
       <c r="T239" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
       </c>
       <c r="U239" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V239" t="inlineStr">
@@ -21638,34 +21638,34 @@
         <v>3</v>
       </c>
       <c r="D240">
-        <v>532.6763870098862</v>
+        <v>102.1149391013722</v>
       </c>
       <c r="E240">
-        <v>215.8229378343582</v>
+        <v>32.15339805982899</v>
       </c>
       <c r="F240">
-        <v>64.02033960881715</v>
+        <v>24.8225715182206</v>
       </c>
       <c r="G240">
-        <v>1001.332434410955</v>
+        <v>179.4073066845239</v>
       </c>
       <c r="H240">
-        <v>109.6712018169173</v>
+        <v>39.09543692352739</v>
       </c>
       <c r="I240">
-        <v>955.681572202855</v>
+        <v>165.1344412792171</v>
       </c>
       <c r="J240">
-        <v>434.7852253816473</v>
+        <v>79.97676450496124</v>
       </c>
       <c r="K240">
-        <v>108.6636331473864</v>
+        <v>36.84286176258035</v>
       </c>
       <c r="L240">
-        <v>221.8084179834972</v>
+        <v>7.766082362915881</v>
       </c>
       <c r="M240">
-        <v>647.7620327797973</v>
+        <v>152.1874466470066</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -21678,16 +21678,16 @@
         </is>
       </c>
       <c r="P240">
-        <v>1116.240963855422</v>
+        <v>334.2726506024097</v>
       </c>
       <c r="Q240">
-        <v>1116.240963855422</v>
+        <v>334.2726506024096</v>
       </c>
       <c r="R240">
-        <v>0.4772055535124401</v>
+        <v>0.305483978175737</v>
       </c>
       <c r="S240">
-        <v>0.3895083942090139</v>
+        <v>0.2392560814078899</v>
       </c>
       <c r="T240" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
       </c>
       <c r="U240" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V240" t="inlineStr">
@@ -21735,34 +21735,34 @@
         <v>4</v>
       </c>
       <c r="D241">
-        <v>418.8510532423498</v>
+        <v>126.8609396937</v>
       </c>
       <c r="E241">
-        <v>223.0434146647822</v>
+        <v>100.2395768365592</v>
       </c>
       <c r="F241">
-        <v>-65.48414376928872</v>
+        <v>-114.1012816184731</v>
       </c>
       <c r="G241">
-        <v>903.1862502539884</v>
+        <v>367.8231610058731</v>
       </c>
       <c r="H241">
-        <v>-18.30600648945614</v>
+        <v>-69.60502073149145</v>
       </c>
       <c r="I241">
-        <v>856.0081129741559</v>
+        <v>323.3269001188916</v>
       </c>
       <c r="J241">
-        <v>434.7852253816473</v>
+        <v>79.97676450496124</v>
       </c>
       <c r="K241">
-        <v>108.6636331473864</v>
+        <v>36.84286176258035</v>
       </c>
       <c r="L241">
-        <v>221.8084179834972</v>
+        <v>7.766082362915881</v>
       </c>
       <c r="M241">
-        <v>647.7620327797973</v>
+        <v>152.1874466470066</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -21775,16 +21775,16 @@
         </is>
       </c>
       <c r="P241">
-        <v>1116.240963855422</v>
+        <v>334.2726506024097</v>
       </c>
       <c r="Q241">
-        <v>1116.240963855422</v>
+        <v>334.2726506024096</v>
       </c>
       <c r="R241">
-        <v>0.3752335443734893</v>
+        <v>0.3795133686979104</v>
       </c>
       <c r="S241">
-        <v>0.3895083942090139</v>
+        <v>0.2392560814078899</v>
       </c>
       <c r="T241" t="inlineStr">
         <is>
@@ -21793,7 +21793,7 @@
       </c>
       <c r="U241" t="inlineStr">
         <is>
-          <t>opu5</t>
+          <t>ipo5</t>
         </is>
       </c>
       <c r="V241" t="inlineStr">
@@ -21832,22 +21832,22 @@
         <v>-7</v>
       </c>
       <c r="D242">
-        <v>-46.44846296182512</v>
+        <v>122.5562284652511</v>
       </c>
       <c r="E242">
-        <v>23.19784792733014</v>
+        <v>82.89339545675311</v>
       </c>
       <c r="F242">
-        <v>-102.2129139166176</v>
+        <v>-57.4454500413748</v>
       </c>
       <c r="G242">
-        <v>9.315987992967386</v>
+        <v>302.5579069718771</v>
       </c>
       <c r="H242">
-        <v>-91.91540941822933</v>
+        <v>-39.91184118622108</v>
       </c>
       <c r="I242">
-        <v>-0.9815165054209061</v>
+        <v>285.0242981167233</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -21860,16 +21860,16 @@
         </is>
       </c>
       <c r="P242">
-        <v>334.2726506024097</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="Q242">
-        <v>334.2726506024096</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="R242">
-        <v>-0.1389538237068393</v>
+        <v>0.1097937026445886</v>
       </c>
       <c r="S242">
-        <v>0.2392560814078899</v>
+        <v>0.3895083942090139</v>
       </c>
       <c r="T242" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
       </c>
       <c r="U242" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V242" t="inlineStr">
@@ -21917,22 +21917,22 @@
         <v>-6</v>
       </c>
       <c r="D243">
-        <v>-40.91723190138538</v>
+        <v>45.34413183407138</v>
       </c>
       <c r="E243">
-        <v>19.94966788925161</v>
+        <v>30.1899546447391</v>
       </c>
       <c r="F243">
-        <v>-88.87350267527552</v>
+        <v>-20.21287038725858</v>
       </c>
       <c r="G243">
-        <v>7.039038872504769</v>
+        <v>110.9011340554013</v>
       </c>
       <c r="H243">
-        <v>-80.01786246785373</v>
+        <v>-13.82709196451498</v>
       </c>
       <c r="I243">
-        <v>-1.816601334917024</v>
+        <v>104.5153556326577</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -21945,16 +21945,16 @@
         </is>
       </c>
       <c r="P243">
-        <v>334.2726506024097</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="Q243">
-        <v>334.2726506024096</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="R243">
-        <v>-0.1224067593554135</v>
+        <v>0.04062217146865473</v>
       </c>
       <c r="S243">
-        <v>0.2392560814078899</v>
+        <v>0.3895083942090139</v>
       </c>
       <c r="T243" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
       </c>
       <c r="U243" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V243" t="inlineStr">
@@ -22002,22 +22002,22 @@
         <v>-5</v>
       </c>
       <c r="D244">
-        <v>-31.80125396668974</v>
+        <v>29.25800630045337</v>
       </c>
       <c r="E244">
-        <v>20.74462131735613</v>
+        <v>55.91962655110208</v>
       </c>
       <c r="F244">
-        <v>-81.66848396368314</v>
+        <v>-92.17056572508835</v>
       </c>
       <c r="G244">
-        <v>18.06597603030368</v>
+        <v>150.6865783259951</v>
       </c>
       <c r="H244">
-        <v>-72.45996462162961</v>
+        <v>-80.34244776863643</v>
       </c>
       <c r="I244">
-        <v>8.857456688250132</v>
+        <v>138.8584603695432</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -22030,16 +22030,16 @@
         </is>
       </c>
       <c r="P244">
-        <v>334.2726506024097</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="Q244">
-        <v>334.2726506024096</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="R244">
-        <v>-0.09513567415515176</v>
+        <v>0.02621119207039148</v>
       </c>
       <c r="S244">
-        <v>0.2392560814078899</v>
+        <v>0.3895083942090139</v>
       </c>
       <c r="T244" t="inlineStr">
         <is>
@@ -22048,7 +22048,7 @@
       </c>
       <c r="U244" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V244" t="inlineStr">
@@ -22087,22 +22087,22 @@
         <v>-4</v>
       </c>
       <c r="D245">
-        <v>-34.8858374149986</v>
+        <v>-12.20263142053909</v>
       </c>
       <c r="E245">
-        <v>21.98166230292028</v>
+        <v>79.31592657234391</v>
       </c>
       <c r="F245">
-        <v>-87.72674460759467</v>
+        <v>-184.4358936323488</v>
       </c>
       <c r="G245">
-        <v>17.95506977759747</v>
+        <v>160.0306307912707</v>
       </c>
       <c r="H245">
-        <v>-77.96910384904413</v>
+        <v>-167.6589909027566</v>
       </c>
       <c r="I245">
-        <v>8.197429019046922</v>
+        <v>143.2537280616784</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -22115,16 +22115,16 @@
         </is>
       </c>
       <c r="P245">
-        <v>334.2726506024097</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="Q245">
-        <v>334.2726506024096</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="R245">
-        <v>-0.104363421153747</v>
+        <v>-0.01093189715811183</v>
       </c>
       <c r="S245">
-        <v>0.2392560814078899</v>
+        <v>0.3895083942090139</v>
       </c>
       <c r="T245" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
       </c>
       <c r="U245" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V245" t="inlineStr">
@@ -22172,22 +22172,22 @@
         <v>-3</v>
       </c>
       <c r="D246">
-        <v>0.1920689756434192</v>
+        <v>107.1685723250566</v>
       </c>
       <c r="E246">
-        <v>17.11212608806454</v>
+        <v>78.74236116665499</v>
       </c>
       <c r="F246">
-        <v>-40.94313972817213</v>
+        <v>-63.81920180910284</v>
       </c>
       <c r="G246">
-        <v>41.32727767945897</v>
+        <v>278.156346459216</v>
       </c>
       <c r="H246">
-        <v>-33.34708185587137</v>
+        <v>-47.16361961923253</v>
       </c>
       <c r="I246">
-        <v>33.7312198071582</v>
+        <v>261.5007642693457</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -22200,16 +22200,16 @@
         </is>
       </c>
       <c r="P246">
-        <v>334.2726506024097</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="Q246">
-        <v>334.2726506024096</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="R246">
-        <v>0.0005745877662958127</v>
+        <v>0.09600845677164853</v>
       </c>
       <c r="S246">
-        <v>0.2392560814078899</v>
+        <v>0.3895083942090139</v>
       </c>
       <c r="T246" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
       </c>
       <c r="U246" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V246" t="inlineStr">
@@ -22257,22 +22257,22 @@
         <v>-2</v>
       </c>
       <c r="D247">
-        <v>13.5930074885502</v>
+        <v>133.7461456848702</v>
       </c>
       <c r="E247">
-        <v>15.17356992914668</v>
+        <v>89.48628919115176</v>
       </c>
       <c r="F247">
-        <v>-22.88217757058376</v>
+        <v>-60.57189580662964</v>
       </c>
       <c r="G247">
-        <v>50.06819254768418</v>
+        <v>328.06418717637</v>
       </c>
       <c r="H247">
-        <v>-16.14664308947726</v>
+        <v>-41.64375823992316</v>
       </c>
       <c r="I247">
-        <v>43.33265806657766</v>
+        <v>309.1360496096635</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -22285,16 +22285,16 @@
         </is>
       </c>
       <c r="P247">
-        <v>334.2726506024097</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="Q247">
-        <v>334.2726506024096</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="R247">
-        <v>0.0406644320558489</v>
+        <v>0.1198183456938544</v>
       </c>
       <c r="S247">
-        <v>0.2392560814078899</v>
+        <v>0.3895083942090139</v>
       </c>
       <c r="T247" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V247" t="inlineStr">
@@ -22355,16 +22355,16 @@
         </is>
       </c>
       <c r="P248">
-        <v>334.2726506024097</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="Q248">
-        <v>334.2726506024096</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="R248">
         <v>0</v>
       </c>
       <c r="S248">
-        <v>0.2392560814078899</v>
+        <v>0.3895083942090139</v>
       </c>
       <c r="T248" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V248" t="inlineStr">
@@ -22412,34 +22412,34 @@
         <v>0</v>
       </c>
       <c r="D249">
-        <v>26.75923316813839</v>
+        <v>233.4083705572345</v>
       </c>
       <c r="E249">
-        <v>12.35507868745696</v>
+        <v>84.79896175759995</v>
       </c>
       <c r="F249">
-        <v>-2.940684758196191</v>
+        <v>49.26878539630769</v>
       </c>
       <c r="G249">
-        <v>56.45915109447296</v>
+        <v>417.5479557181613</v>
       </c>
       <c r="H249">
-        <v>2.543723914564342</v>
+        <v>67.20545958594926</v>
       </c>
       <c r="I249">
-        <v>50.97474242171243</v>
+        <v>399.6112815285197</v>
       </c>
       <c r="J249">
-        <v>79.97676450496124</v>
+        <v>434.7852253816473</v>
       </c>
       <c r="K249">
-        <v>36.84286176258035</v>
+        <v>108.6636331473864</v>
       </c>
       <c r="L249">
-        <v>7.766082362915881</v>
+        <v>221.8084179834972</v>
       </c>
       <c r="M249">
-        <v>152.1874466470066</v>
+        <v>647.7620327797973</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -22452,16 +22452,16 @@
         </is>
       </c>
       <c r="P249">
-        <v>334.2726506024097</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="Q249">
-        <v>334.2726506024096</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="R249">
-        <v>0.08005211649805696</v>
+        <v>0.2091021366489343</v>
       </c>
       <c r="S249">
-        <v>0.2392560814078899</v>
+        <v>0.3895083942090139</v>
       </c>
       <c r="T249" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V249" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="Y249" t="inlineStr">
         <is>
-          <t>23.9%</t>
+          <t>39.0%</t>
         </is>
       </c>
       <c r="Z249">
@@ -22514,34 +22514,34 @@
         <v>1</v>
       </c>
       <c r="D250">
-        <v>68.5574129564626</v>
+        <v>491.065555181495</v>
       </c>
       <c r="E250">
-        <v>37.03805491643562</v>
+        <v>123.5320469972485</v>
       </c>
       <c r="F250">
-        <v>-20.47700106843331</v>
+        <v>222.8176967563322</v>
       </c>
       <c r="G250">
-        <v>157.5918269813585</v>
+        <v>759.3134136066577</v>
       </c>
       <c r="H250">
-        <v>-4.035840737167874</v>
+        <v>248.9471921303786</v>
       </c>
       <c r="I250">
-        <v>141.1506666500931</v>
+        <v>733.1839182326114</v>
       </c>
       <c r="J250">
-        <v>79.97676450496124</v>
+        <v>434.7852253816473</v>
       </c>
       <c r="K250">
-        <v>36.84286176258035</v>
+        <v>108.6636331473864</v>
       </c>
       <c r="L250">
-        <v>7.766082362915881</v>
+        <v>221.8084179834972</v>
       </c>
       <c r="M250">
-        <v>152.1874466470066</v>
+        <v>647.7620327797973</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -22554,16 +22554,16 @@
         </is>
       </c>
       <c r="P250">
-        <v>334.2726506024097</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="Q250">
-        <v>334.2726506024096</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="R250">
-        <v>0.2050942930356756</v>
+        <v>0.4399279108028676</v>
       </c>
       <c r="S250">
-        <v>0.2392560814078899</v>
+        <v>0.3895083942090139</v>
       </c>
       <c r="T250" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
       </c>
       <c r="U250" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V250" t="inlineStr">
@@ -22611,34 +22611,34 @@
         <v>2</v>
       </c>
       <c r="D251">
-        <v>75.59129760513292</v>
+        <v>497.9247609172706</v>
       </c>
       <c r="E251">
-        <v>42.20259359083605</v>
+        <v>140.0242384486393</v>
       </c>
       <c r="F251">
-        <v>-25.85796043955813</v>
+        <v>193.8643733135711</v>
       </c>
       <c r="G251">
-        <v>177.040555649824</v>
+        <v>801.9851485209701</v>
       </c>
       <c r="H251">
-        <v>-7.124265887086622</v>
+        <v>223.482296595289</v>
       </c>
       <c r="I251">
-        <v>158.3068610973525</v>
+        <v>772.3672252392523</v>
       </c>
       <c r="J251">
-        <v>79.97676450496124</v>
+        <v>434.7852253816473</v>
       </c>
       <c r="K251">
-        <v>36.84286176258035</v>
+        <v>108.6636331473864</v>
       </c>
       <c r="L251">
-        <v>7.766082362915881</v>
+        <v>221.8084179834972</v>
       </c>
       <c r="M251">
-        <v>152.1874466470066</v>
+        <v>647.7620327797973</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -22651,16 +22651,16 @@
         </is>
       </c>
       <c r="P251">
-        <v>334.2726506024097</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="Q251">
-        <v>334.2726506024096</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="R251">
-        <v>0.2261366506320694</v>
+        <v>0.4460728257073381</v>
       </c>
       <c r="S251">
-        <v>0.2392560814078899</v>
+        <v>0.3895083942090139</v>
       </c>
       <c r="T251" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="U251" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V251" t="inlineStr">
@@ -22708,34 +22708,34 @@
         <v>3</v>
       </c>
       <c r="D252">
-        <v>102.1149391013722</v>
+        <v>532.6763870098862</v>
       </c>
       <c r="E252">
-        <v>32.15339805982899</v>
+        <v>215.8229378343582</v>
       </c>
       <c r="F252">
-        <v>24.8225715182206</v>
+        <v>64.02033960881715</v>
       </c>
       <c r="G252">
-        <v>179.4073066845239</v>
+        <v>1001.332434410955</v>
       </c>
       <c r="H252">
-        <v>39.09543692352739</v>
+        <v>109.6712018169173</v>
       </c>
       <c r="I252">
-        <v>165.1344412792171</v>
+        <v>955.681572202855</v>
       </c>
       <c r="J252">
-        <v>79.97676450496124</v>
+        <v>434.7852253816473</v>
       </c>
       <c r="K252">
-        <v>36.84286176258035</v>
+        <v>108.6636331473864</v>
       </c>
       <c r="L252">
-        <v>7.766082362915881</v>
+        <v>221.8084179834972</v>
       </c>
       <c r="M252">
-        <v>152.1874466470066</v>
+        <v>647.7620327797973</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -22748,16 +22748,16 @@
         </is>
       </c>
       <c r="P252">
-        <v>334.2726506024097</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="Q252">
-        <v>334.2726506024096</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="R252">
-        <v>0.305483978175737</v>
+        <v>0.4772055535124401</v>
       </c>
       <c r="S252">
-        <v>0.2392560814078899</v>
+        <v>0.3895083942090139</v>
       </c>
       <c r="T252" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
       </c>
       <c r="U252" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V252" t="inlineStr">
@@ -22805,34 +22805,34 @@
         <v>4</v>
       </c>
       <c r="D253">
-        <v>126.8609396937</v>
+        <v>418.8510532423498</v>
       </c>
       <c r="E253">
-        <v>100.2395768365592</v>
+        <v>223.0434146647822</v>
       </c>
       <c r="F253">
-        <v>-114.1012816184731</v>
+        <v>-65.48414376928872</v>
       </c>
       <c r="G253">
-        <v>367.8231610058731</v>
+        <v>903.1862502539884</v>
       </c>
       <c r="H253">
-        <v>-69.60502073149145</v>
+        <v>-18.30600648945614</v>
       </c>
       <c r="I253">
-        <v>323.3269001188916</v>
+        <v>856.0081129741559</v>
       </c>
       <c r="J253">
-        <v>79.97676450496124</v>
+        <v>434.7852253816473</v>
       </c>
       <c r="K253">
-        <v>36.84286176258035</v>
+        <v>108.6636331473864</v>
       </c>
       <c r="L253">
-        <v>7.766082362915881</v>
+        <v>221.8084179834972</v>
       </c>
       <c r="M253">
-        <v>152.1874466470066</v>
+        <v>647.7620327797973</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -22845,16 +22845,16 @@
         </is>
       </c>
       <c r="P253">
-        <v>334.2726506024097</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="Q253">
-        <v>334.2726506024096</v>
+        <v>1116.240963855422</v>
       </c>
       <c r="R253">
-        <v>0.3795133686979104</v>
+        <v>0.3752335443734893</v>
       </c>
       <c r="S253">
-        <v>0.2392560814078899</v>
+        <v>0.3895083942090139</v>
       </c>
       <c r="T253" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
       </c>
       <c r="U253" t="inlineStr">
         <is>
-          <t>ipo5</t>
+          <t>opu5</t>
         </is>
       </c>
       <c r="V253" t="inlineStr">
